--- a/Wuzzef_jobs_details.xlsx
+++ b/Wuzzef_jobs_details.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet name="2024-09-24" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2024-09-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2024-09-26" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2024-09-27" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2047,7 +2049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4167,6 +4169,570 @@
       <c r="I45" t="inlineStr">
         <is>
           <t>['Conduct comprehensive financial valuation analysis of various assets, including equities, fixed-income securities, and structured products.', 'Review and analyze financial models, ensuring accuracy and adherence to industry best practices', 'Supervise and Collaborate with internal teams to gather data, perform valuation adjustments, and reconcile discrepancies', 'Prepare and review detailed reports and presentations to communicate valuation findings and recommendations to stakeholders', 'Support M&amp;A and various corporate finance transactions and legal agreements.', 'Recommend switches and/or divestment from existing investment holdings.', 'Prepare and manage cross-functional projects and business improvement initiatives.', 'Analyze companies, markets, industries, and teams to make investment decisions.', 'Present investment opportunities to the investment committee.', 'Stay updated with industry regulations and market trends, ensuring compliance with relevant valuation standards issued by The Financial Regulatory Authority (FRA)', 'Participate in cross-functional projects and initiatives aimed at enhancing valuation processes and methodologies', 'Provide guidance and mentorship to junior valuation analysts, promoting professional development and growth within the team']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Quality Control Analyst</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MENA INTEL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/7KgBLSjeIpNw-Quality-Control-Analyst-MENA-INTEL-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Confidential, KPIs Bonus, Medical And Social Insurance</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Quality', 'Control', 'Customer', 'Service', 'Call', 'Center', 'Operations', 'Management', 'Quality', 'Auditing', 'Quality', 'Assurance', 'Human', 'Resources', 'Problem', 'Analysis', 'Cold', 'Calling', 'Sales', 'Computer', 'Skills']</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[' ', '* Very Good English language is a must.', '* Very Good Computer skills is a must.', '* Previous Customer service, Sales and Human Resources recruitment experience is preferable.', '* Proven office experience is preferable.', '* Able to meet task deadlines and able to work individually or within a team', '* Excellent telephonic skills and validation information skills', '* Strong problem-solving skills.', '* Able to work individually or within a team.', ' ', 'Working Conditions:', ' ', '* Fixed working hours from 8:30 am to 5 pm, (Friday and Saturday off).', '* Package includes: attractive salary, Social insurance, medical allowance, KPI’s, etc.']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[' ', 'This role is a core function that essentially is tasked for the Quality of BIRs and projects as part of the company’s operations and core functions.', ' ', 'It is a dynamic role that encompasses reviewing and mentoring the tasks and projects. It requires a keen eye for detail and analytical thinking with strong telephone interviewing skills and a keen ability to create meaningful accurate reports of all types, and to analyze, understand, and verify data and information.', ' ', 'Our plans for growth, culture and niche expertise makes our company an ideal employment opportunity for aspiring professionals to further their skill set and develop their careers.', ' ', 'Experience and a good sense of business are a must together with results-driven and resilient personality.', ' ', ' Full training will be given.', ' ', 'Job Duties:', 'Collect, record, and analyze data.', 'Call Monitoring.', 'Cross Referencing.', 'Validating the Information.', 'Conduct training for newcomers.', 'Transcribing and translating phone calls from Arabic to English and vice-versa.', 'Cold Call.', 'Interpret data analysis results and draw inferences and conclusions.', 'Data Entry']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/X4nvgoYv8DE0-Financial-Analyst-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Finance', 'Analysis', 'Communication', 'skills']</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Minimum of 4 years of relevant experience in financial analysis, financial modeling, or a related field.', 'Strong analytical skills and the ability to interpret financial data and develop financial models.', 'Excellent written and verbal communication skills.', 'Strong attention to detail and ability to work in a fast-paced environment.', 'Ability to work independently and as part of a team.', 'Proficiency in Microsoft Excel and financial modeling software.', 'Knowledge of accounting principles and financial reporting standards.', 'Experience working with cross-functional teams.', 'Ability to prioritize tasks and manage multiple projects simultaneously.']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Provide financial analysis and support in areas such as cost control, revenue enhancement, and process improvement.', 'Develop and maintain financial reports for management, including monthly financial reports, forecasts, and budgets.', 'Assist in the preparation of financial presentations for executive leadership and other stakeholders.', 'Work with cross-functional teams to identify opportunities to improve financial performance and support business decisions.', 'Ensure compliance with internal controls and financial policies and procedures.', 'Prepare ad-hoc financial analysis and reports as requested.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sales Admin</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Los Amigos</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/qOstG7dWnXJm-Sales-Admin-Los-Amigos-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>More Than 1 Year</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Admin', 'Communication', 'negotiation', 'skills', 'Sales', 'sales', 'skills', 'Administration', 'selling', 'skills', 'Events', 'Organizing', 'Organizing', 'Communication', 'skills', 'Data', 'Entry', 'English', 'Microsoft']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['Organizational Skills.', 'Strong Microsoft skills, Data Entry, Email Alerts .', 'Very good command of English .', 'Excellent written and verbal communication skills.', 'Excellent presentation and creativity skills.']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['Track and report on key sales KPIs, including lead conversion rates, sales pipeline status, and revenue forecasts.', 'Update, Compiling monthly sales reports.', 'Monitor and analyze sales performance metrics and prepare regular reports for the sales team and management.', 'Schedule Appointments for Sales Manager', 'Contacting leads and setting up appointments to present company products.', 'Attending trade shows and other industry-related events', 'Proven work experience as a Sales administrator or Sales support agent', 'Hands on experience with CRM software and MS Office (MS Excel in particular)', 'Write down minutes of meetings &amp; Filling system', 'Excellent organizational and multitasking skills', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Alsabbahi for investment...</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Dokki, Giza</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/6J9Ki9VYQeWf-CFO-Alsabbahi-for-investment-development-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10000 To 50000 EGP Per Month</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5 To 15 Years</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Accounting', 'CFO', 'Finance', 'Financial', 'Management', 'Financial', 'Analysis', 'Financial']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['In depth knowledge of corporate financial law and risk management practices', 'Excellent knowledge of data analysis and forecasting methods', 'Proficient in the use of MS Office and financial management software (e.g. SAP)', 'Ability to strategize and solve problems', 'Strong leadership and organizational skills', 'Excellent communication and people skills', 'An analytical mind, comfortable with numbers', 'CPA is a strong advantage', 'BSc/BA in Accounting, Finance or relevant field; MSc/MBA is a plus']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['Perform risk management by analyzing the organization’s liabilities and investments', 'Decide on investment strategies by considering cash and liquidity risks', 'Control and evaluate the organization’s fundraising plans and capital structure', 'Ensure cash flow is appropriate for the organization’s operations', 'Supervise all finance personnel (controllers, treasurers etc.)', 'Manage vendor relationships', 'Prepare reliable current and forecasting reports', 'Set up and oversee the company’s finance IT system', 'Ensure compliance with the law and company’s policies', 'Manage team of financial controllers and financial analysts.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Accounting Manager</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Taamy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/LIVVt18jfSUP-Accounting-Manager-Taamy-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>More Than 5 Years</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Accounting', 'Financial', 'Reports', 'Financial', 'Analysis']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['Establish and enforce proper accounting methods, policies and principles', 'Coordinate and complete annual audits', 'Provide recommendations', 'Improve systems and procedures and initiate corrective actions', 'Assign projects and direct staff to ensure compliance and accuracy', 'Meet financial accounting objectives', 'Establish and maintain fiscal files and records to document transactions']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>WFM Supervisor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Enable</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/4Eyt34RUoi9N-WFM-Supervisor-Enable-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5 To 7 Years</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Analysis', 'Customer', 'Service', 'Customer', 'Support', 'Wfm']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['Education                   ', 'Specialization:', 'Bachelor’s degree in Business Administration, Commerce, or a related field.', 'Experience                 ', 'Minimum 7 years of relevant working experience.', 'Languages                 ', 'English: Excellent command of (Speaking, reading and writing).', 'Arabic: Native command of (Speaking, reading and writing).']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['Manage Staffing and Scheduling planning for the existing projects and for any new projects.', 'Observe the calls and AHT reports which generated by WFM members.', 'Review and assist in developing WFM activities', 'Observe the actions taken from the RTM members to improve the queues performance.', 'Observe the internal satisfaction between team members', 'Supervise Resignation process and procedures and ensure sending the required data on time.', 'Managerial responsibilities:', 'Coach, support, and advise subordinates regularly, furthermore, appraise their performance.', 'Prepare different kind of reports that shows tasks’ progress.', 'Builds and maintain team spirit', 'Manage change', 'Participate in the development of departmental plan and processes.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Quality Control Analyst</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MENA INTEL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/7KgBLSjeIpNw-Quality-Control-Analyst-MENA-INTEL-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Confidential, KPIs Bonus, Medical And Social Insurance</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Quality', 'Control', 'Customer', 'Service', 'Call', 'Center', 'Operations', 'Management', 'Quality', 'Auditing', 'Quality', 'Assurance', 'Human', 'Resources', 'Problem', 'Analysis', 'Cold', 'Calling', 'Sales', 'Computer', 'Skills']</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[' ', '* Very Good English language is a must.', '* Very Good Computer skills is a must.', '* Previous Customer service, Sales and Human Resources recruitment experience is preferable.', '* Proven office experience is preferable.', '* Able to meet task deadlines and able to work individually or within a team', '* Excellent telephonic skills and validation information skills', '* Strong problem-solving skills.', '* Able to work individually or within a team.', ' ', 'Working Conditions:', ' ', '* Fixed working hours from 8:30 am to 5 pm, (Friday and Saturday off).', '* Package includes: attractive salary, Social insurance, medical allowance, KPI’s, etc.']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[' ', 'This role is a core function that essentially is tasked for the Quality of BIRs and projects as part of the company’s operations and core functions.', ' ', 'It is a dynamic role that encompasses reviewing and mentoring the tasks and projects. It requires a keen eye for detail and analytical thinking with strong telephone interviewing skills and a keen ability to create meaningful accurate reports of all types, and to analyze, understand, and verify data and information.', ' ', 'Our plans for growth, culture and niche expertise makes our company an ideal employment opportunity for aspiring professionals to further their skill set and develop their careers.', ' ', 'Experience and a good sense of business are a must together with results-driven and resilient personality.', ' ', ' Full training will be given.', ' ', 'Job Duties:', 'Collect, record, and analyze data.', 'Call Monitoring.', 'Cross Referencing.', 'Validating the Information.', 'Conduct training for newcomers.', 'Transcribing and translating phone calls from Arabic to English and vice-versa.', 'Cold Call.', 'Interpret data analysis results and draw inferences and conclusions.', 'Data Entry']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/X4nvgoYv8DE0-Financial-Analyst-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Finance', 'Analysis', 'Communication', 'skills']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['Minimum of 4 years of relevant experience in financial analysis, financial modeling, or a related field.', 'Strong analytical skills and the ability to interpret financial data and develop financial models.', 'Excellent written and verbal communication skills.', 'Strong attention to detail and ability to work in a fast-paced environment.', 'Ability to work independently and as part of a team.', 'Proficiency in Microsoft Excel and financial modeling software.', 'Knowledge of accounting principles and financial reporting standards.', 'Experience working with cross-functional teams.', 'Ability to prioritize tasks and manage multiple projects simultaneously.']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['Provide financial analysis and support in areas such as cost control, revenue enhancement, and process improvement.', 'Develop and maintain financial reports for management, including monthly financial reports, forecasts, and budgets.', 'Assist in the preparation of financial presentations for executive leadership and other stakeholders.', 'Work with cross-functional teams to identify opportunities to improve financial performance and support business decisions.', 'Ensure compliance with internal controls and financial policies and procedures.', 'Prepare ad-hoc financial analysis and reports as requested.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sales Admin</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Los Amigos</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/qOstG7dWnXJm-Sales-Admin-Los-Amigos-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>More Than 1 Year</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Admin', 'Communication', 'negotiation', 'skills', 'Sales', 'sales', 'skills', 'Administration', 'selling', 'skills', 'Events', 'Organizing', 'Organizing', 'Communication', 'skills', 'Data', 'Entry', 'English', 'Microsoft']</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['Organizational Skills.', 'Strong Microsoft skills, Data Entry, Email Alerts .', 'Very good command of English .', 'Excellent written and verbal communication skills.', 'Excellent presentation and creativity skills.']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['Track and report on key sales KPIs, including lead conversion rates, sales pipeline status, and revenue forecasts.', 'Update, Compiling monthly sales reports.', 'Monitor and analyze sales performance metrics and prepare regular reports for the sales team and management.', 'Schedule Appointments for Sales Manager', 'Contacting leads and setting up appointments to present company products.', 'Attending trade shows and other industry-related events', 'Proven work experience as a Sales administrator or Sales support agent', 'Hands on experience with CRM software and MS Office (MS Excel in particular)', 'Write down minutes of meetings &amp; Filling system', 'Excellent organizational and multitasking skills', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Alsabbahi for investment...</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Dokki, Giza</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/6J9Ki9VYQeWf-CFO-Alsabbahi-for-investment-development-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10000 To 50000 EGP Per Month</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5 To 15 Years</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Accounting', 'CFO', 'Finance', 'Financial', 'Management', 'Financial', 'Analysis', 'Financial']</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['In depth knowledge of corporate financial law and risk management practices', 'Excellent knowledge of data analysis and forecasting methods', 'Proficient in the use of MS Office and financial management software (e.g. SAP)', 'Ability to strategize and solve problems', 'Strong leadership and organizational skills', 'Excellent communication and people skills', 'An analytical mind, comfortable with numbers', 'CPA is a strong advantage', 'BSc/BA in Accounting, Finance or relevant field; MSc/MBA is a plus']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['Perform risk management by analyzing the organization’s liabilities and investments', 'Decide on investment strategies by considering cash and liquidity risks', 'Control and evaluate the organization’s fundraising plans and capital structure', 'Ensure cash flow is appropriate for the organization’s operations', 'Supervise all finance personnel (controllers, treasurers etc.)', 'Manage vendor relationships', 'Prepare reliable current and forecasting reports', 'Set up and oversee the company’s finance IT system', 'Ensure compliance with the law and company’s policies', 'Manage team of financial controllers and financial analysts.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Accounting Manager</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Taamy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/LIVVt18jfSUP-Accounting-Manager-Taamy-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>More Than 5 Years</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['Accounting', 'Financial', 'Reports', 'Financial', 'Analysis']</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['Establish and enforce proper accounting methods, policies and principles', 'Coordinate and complete annual audits', 'Provide recommendations', 'Improve systems and procedures and initiate corrective actions', 'Assign projects and direct staff to ensure compliance and accuracy', 'Meet financial accounting objectives', 'Establish and maintain fiscal files and records to document transactions']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>WFM Supervisor</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Enable</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/4Eyt34RUoi9N-WFM-Supervisor-Enable-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5 To 7 Years</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['Analysis', 'Customer', 'Service', 'Customer', 'Support', 'Wfm']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['Education                   ', 'Specialization:', 'Bachelor’s degree in Business Administration, Commerce, or a related field.', 'Experience                 ', 'Minimum 7 years of relevant working experience.', 'Languages                 ', 'English: Excellent command of (Speaking, reading and writing).', 'Arabic: Native command of (Speaking, reading and writing).']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['Manage Staffing and Scheduling planning for the existing projects and for any new projects.', 'Observe the calls and AHT reports which generated by WFM members.', 'Review and assist in developing WFM activities', 'Observe the actions taken from the RTM members to improve the queues performance.', 'Observe the internal satisfaction between team members', 'Supervise Resignation process and procedures and ensure sending the required data on time.', 'Managerial responsibilities:', 'Coach, support, and advise subordinates regularly, furthermore, appraise their performance.', 'Prepare different kind of reports that shows tasks’ progress.', 'Builds and maintain team spirit', 'Manage change', 'Participate in the development of departmental plan and processes.']</t>
         </is>
       </c>
     </row>
@@ -4216,6 +4782,2741 @@
     <hyperlink ref="D43" r:id="rId42"/>
     <hyperlink ref="D44" r:id="rId43"/>
     <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Job Title</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Job Link</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Job Requirements</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Quality Control Analyst</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MENA INTEL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/7KgBLSjeIpNw-Quality-Control-Analyst-MENA-INTEL-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Confidential, KPIs Bonus, Medical And Social Insurance</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Quality', 'Control', 'Customer', 'Service', 'Call', 'Center', 'Operations', 'Management', 'Quality', 'Auditing', 'Quality', 'Assurance', 'Human', 'Resources', 'Problem', 'Analysis', 'Cold', 'Calling', 'Sales', 'Computer', 'Skills']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[' ', '* Very Good English language is a must.', '* Very Good Computer skills is a must.', '* Previous Customer service, Sales and Human Resources recruitment experience is preferable.', '* Proven office experience is preferable.', '* Able to meet task deadlines and able to work individually or within a team', '* Excellent telephonic skills and validation information skills', '* Strong problem-solving skills.', '* Able to work individually or within a team.', ' ', 'Working Conditions:', ' ', '* Fixed working hours from 8:30 am to 5 pm, (Friday and Saturday off).', '* Package includes: attractive salary, Social insurance, medical allowance, KPI’s, etc.']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[' ', 'This role is a core function that essentially is tasked for the Quality of BIRs and projects as part of the company’s operations and core functions.', ' ', 'It is a dynamic role that encompasses reviewing and mentoring the tasks and projects. It requires a keen eye for detail and analytical thinking with strong telephone interviewing skills and a keen ability to create meaningful accurate reports of all types, and to analyze, understand, and verify data and information.', ' ', 'Our plans for growth, culture and niche expertise makes our company an ideal employment opportunity for aspiring professionals to further their skill set and develop their careers.', ' ', 'Experience and a good sense of business are a must together with results-driven and resilient personality.', ' ', ' Full training will be given.', ' ', 'Job Duties:', 'Collect, record, and analyze data.', 'Call Monitoring.', 'Cross Referencing.', 'Validating the Information.', 'Conduct training for newcomers.', 'Transcribing and translating phone calls from Arabic to English and vice-versa.', 'Cold Call.', 'Interpret data analysis results and draw inferences and conclusions.', 'Data Entry']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dokki, Giza</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/N4XAIuohS7AM-Business-Analyst-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1 To 7 Years</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Business', 'Analysis', 'Scrum', 'Management']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Collaborate with stakeholders to understand and document business objectives, needs, and requirements.', 'Work with project managers, developers, and QA teams to ensure solutions align with business goals.', 'Facilitate communication between business units and IT, ensuring all parties are aligned throughout the project lifecycle.', 'Translate business requirements into detailed documentation including:', 'Functional Requirements Document (FRD)', 'Use Case Document', 'Process Flow Document', 'Project Roadmap', 'Change Management Document', 'Project Status Report', 'User Acceptance Testing (UAT) Documentation', 'Qualifications:', 'Experience as a Business Analyst or in a related role.', 'Experience in creating and managing FRD, Use Case, Process Flow, Change Management, and UAT documentation.', 'Familiarity with Agile/Scrum methodologies is a plus.', ' ']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paymob Solutions</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/SCc3lNw8IO1J-Senior-Data-Engineer-Paymob-Solutions-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5 To 6 Years</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Engineering', 'Python', 'SQL', 'Database', 'Pandas', 'Computer', 'Science', 'Programming', 'Software', 'Development']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Bachelor’s degree in computer science, Computer Engineering', '4-6 years of experience.', 'Strong programming skills in languages such as Python.', 'Proficiency in data modeling techniques and data integration methodologies.', 'Experience with ETL tools and data integration frameworks.', 'Knowledge of relational databases, SQL, and database design principles.', 'Familiarity with big data technologies and distributed computing frameworks (e.g., Hadoop, Spark).', 'Understanding of data warehousing concepts and cloud-based data storage services.', 'Experience with data processing and manipulation libraries (e.g., pandas, NumPy).', 'Familiarity with data quality assurance processes and data governance principles.', 'Experience with data orchestration and scheduling tools like airflow.']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[' Job Description:', ' Design, build, and maintain scalable and efficient data pipelines for extracting, transforming, and loading (ETL) data from various sources into target systems, data warehouses, or data lakes. Ensure the reliability, performance, and integrity of data pipelines.', 'Develop data integration strategies to consolidate data from multiple sources, ensuring data consistency and accuracy.', 'Implement data transformation processes to convert and cleanse data according to defined business rules and data quality standards. Handle data cleansing, data standardization, and data enrichment tasks to improve data quality and usability.', 'Establish and maintain scalable data storage systems such as relational databases, NoSQL databases, or cloud-based data warehouses. Optimize data storage and retrieval for efficient data processing and analysis.', 'Utilize big data technologies and frameworks such as Apache Hadoop, Apache Spark, or cloud-based services like Amazon Redshift, DMS…etc. to handle large volumes of structured and unstructured data. Implement distributed computing techniques for parallel processing and high-performance data processing.', 'Develop and implement data quality assurance processes, including data validation rules, data profiling, and data quality monitoring. Identify and address data quality issues, anomalies, or inconsistencies in a proactive and timely manner to decide as per high quality data.', 'Monitor and optimize data pipelines, data processing workflows, and data storage systems for performance and efficiency. Identify and resolve bottlenecks, optimize queries, and tune data processing operations for improved system performance to avoid any system failures.', 'Ensure data security and compliance with privacy regulations by implementing appropriate data access controls, encryption mechanisms, and data anonymization techniques. Adhere to data governance policies and procedures.', 'Collaborate with cross-functional teams, including data scientists, analysts, and business stakeholders, to understand their data requirements and provide technical expertise. Document data engineering processes, data flows, and system configurations for knowledge sharing and future reference.', 'Stay updated with emerging technologies, trends, and best practices in the field of data engineering, continuously learn and evaluate new tools, techniques, and frameworks to improve data engineering capabilities and drive innovation.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sales Admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Los Amigos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/qOstG7dWnXJm-Sales-Admin-Los-Amigos-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>More Than 1 Year</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Admin', 'Communication', 'negotiation', 'skills', 'Sales', 'sales', 'skills', 'Administration', 'selling', 'skills', 'Events', 'Organizing', 'Organizing', 'Communication', 'skills', 'Data', 'Entry', 'English', 'Microsoft']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Organizational Skills.', 'Strong Microsoft skills, Data Entry, Email Alerts .', 'Very good command of English .', 'Excellent written and verbal communication skills.', 'Excellent presentation and creativity skills.']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Track and report on key sales KPIs, including lead conversion rates, sales pipeline status, and revenue forecasts.', 'Update, Compiling monthly sales reports.', 'Monitor and analyze sales performance metrics and prepare regular reports for the sales team and management.', 'Schedule Appointments for Sales Manager', 'Contacting leads and setting up appointments to present company products.', 'Attending trade shows and other industry-related events', 'Proven work experience as a Sales administrator or Sales support agent', 'Hands on experience with CRM software and MS Office (MS Excel in particular)', 'Write down minutes of meetings &amp; Filling system', 'Excellent organizational and multitasking skills', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Market Researcher</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Venus International Free...</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/Szt4zcKVRLb2-Market-Researcher-Venus-International-Free-Zone-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Analysis', 'Communication', 'Market', 'Research', 'Marketing', 'Research', 'Skills', 'Web', 'Analytics', 'Management']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['- Exceptional analytical and strategic thinking abilities', '- Great capacity to understand and relay complex data across industries', '- Comprehensive knowledge of statistics and experience with modernized statistical technologies', '- Advanced computer literacy skills and a facility with search engines and web analytics', '- Superb ability to multitask while paying attention to detail', '- Excellent written and verbal communication skills', 'Preferred qualifications', '- Experience working as a market research analyst or in a similar role', '- Knowledge of data warehousing and mining', '- Familiarity using customer relationship management software such as Salesforce', '- Demonstrated success predicting market trends', '- Insatiable curiosity for digging into data and gaining market insights', '- Passion for statistical research and analysis']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['- Formulating the proper research strategy using different approaches to market research.', '- Using the proper data, either primary or secondary where the data used is either first-hand or second-hand, using either a quantitative or qualitative approach.', '- Acquiring the research materials including the methods and tools used to collect, analyze, and present data.', '- Executing the data collection taking into consideration ensuring the business makes accurate decisions ultimately.', '- Getting the data across distributed various sources and the larger portion of it is unstructured which requires an advanced AI consumer and market research platform to access this data, parse it, and make it available for analysis.', '- Analyzing the collected data that’s in raw form to yield information then providing insights using dedicated tools.', '- Using intelligence platforms and Integrating data in one location to enhance the synergistic relationship between using large volumes of data and using the tools.', '- Compiling the data and presenting reports to the relevant functions, people and stakeholders using visualized and accurate reports to enhance attention, understanding and memory of the stakeholders.', '- Using data to inform relevant stakeholders be it acquiring customers, beating the competition, or taking advantage of various opportunities.', '- Monitoring and forecasting marketing and sales trends.', '- Conducting in-depth market research and sharing insights with the marketing and sales teams on a regular basis', '- Reviewing and interpreting large data sets and organize them into spreadsheets, charts, and graphs', '- Consolidating data findings into reports to share with clients', '- Studying consumer behaviors and attitudes and writing up predictions for future sales trends', 'Responsibilities', '- Present data findings and insights during company-wide meetings', '- Study consumer behaviors and attitudes and write up predictions for future sales trends', '- Stay up to date on market trends, consumer and product research, and industry best practices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HRIS Specialist</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zamil Steel Buildings Co</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/u5RayW74BOjd-HRIS-Specialist-Zamil-Steel-Buildings-Co-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Confidential, Company Benefits</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5 To 7 Years</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Human', 'Resources', '(HR)', 'SQL', 'Microsoft', 'Office', 'HRIS']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Ability to collaborate, provide technical support, and train staff', 'Extensive experience in analyzing HRIS and HR performance metrics', 'Advanced proficiency in database management and security, as well as running SQL queries', 'Ability to keep up with technical innovation and trends in HRIS Analysis', 'Exceptional interpersonal and communication skills', 'Experience in documenting processes, as well as performing diagnostic tests and audits', 'Relevant training and/or certifications as an HRIS Analyst']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Perform application upgrades, as well as provide training and technical support', 'Develop and implement new processes and systems for efficient HR management', 'Optimize HRIS processes, integrate new software, and perform diagnostic tests', 'Perform statistical analysis on gathered HRIS data and run queries', 'Ensure the efficient recording and secure storage of HR metrics, including attendance and employee performance data', 'Perform audits on HR processes and documents, including hiring, termination of service, and payroll administration, when required', 'Keep track of technological advancements and trends in the field of HRIS']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cost Accountant</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Big Daddy </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/SjUATkBkGwhq-Cost-Accountant-Big-Daddy-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2 To 3 Years</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Cost', 'Accountant', 'Cost']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Thorough knowledge of accounting procedures', 'In-depth understanding of Generally Accepted Accounting Principles (GAAP)', 'Experience with accounting software, like FreshBooks and Zoho', 'Computer literacy, MS Excel in particular (familiarity with VLOOKUPs and pivot tables)', 'Excellent analytical skills with an attention to detail', 'Strong time management skills', 'Integrity, with an ability to handle confidential information', 'BSc degree in Accounting, Finance or relevant study']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Construct data accumulation systems', 'Determine fixed costs (e.g. salaries, rent and insurance)', 'Plan and record variable costs (e.g. purchases of raw material and operations costs)', 'Review standard and actual costs for inaccuracies', 'Prepare budgeting reports (for the company and for each department)', 'Analyze and report profit margins', 'Prepare (monthly, quarterly and annual) cost forecasts', 'Assisting in month-end and year-end closing', 'Identify and recommend cost-effective solutions']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CFO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alsabbahi for investment...</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dokki, Giza</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/6J9Ki9VYQeWf-CFO-Alsabbahi-for-investment-development-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10000 To 50000 EGP Per Month</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5 To 15 Years</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Accounting', 'CFO', 'Finance', 'Financial', 'Management', 'Financial', 'Analysis', 'Financial']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['In depth knowledge of corporate financial law and risk management practices', 'Excellent knowledge of data analysis and forecasting methods', 'Proficient in the use of MS Office and financial management software (e.g. SAP)', 'Ability to strategize and solve problems', 'Strong leadership and organizational skills', 'Excellent communication and people skills', 'An analytical mind, comfortable with numbers', 'CPA is a strong advantage', 'BSc/BA in Accounting, Finance or relevant field; MSc/MBA is a plus']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Perform risk management by analyzing the organization’s liabilities and investments', 'Decide on investment strategies by considering cash and liquidity risks', 'Control and evaluate the organization’s fundraising plans and capital structure', 'Ensure cash flow is appropriate for the organization’s operations', 'Supervise all finance personnel (controllers, treasurers etc.)', 'Manage vendor relationships', 'Prepare reliable current and forecasting reports', 'Set up and oversee the company’s finance IT system', 'Ensure compliance with the law and company’s policies', 'Manage team of financial controllers and financial analysts.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WFM Supervisor</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Enable</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/4Eyt34RUoi9N-WFM-Supervisor-Enable-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5 To 7 Years</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Analysis', 'Customer', 'Service', 'Customer', 'Support', 'Wfm']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Education                   ', 'Specialization:', 'Bachelor’s degree in Business Administration, Commerce, or a related field.', 'Experience                 ', 'Minimum 7 years of relevant working experience.', 'Languages                 ', 'English: Excellent command of (Speaking, reading and writing).', 'Arabic: Native command of (Speaking, reading and writing).']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Manage Staffing and Scheduling planning for the existing projects and for any new projects.', 'Observe the calls and AHT reports which generated by WFM members.', 'Review and assist in developing WFM activities', 'Observe the actions taken from the RTM members to improve the queues performance.', 'Observe the internal satisfaction between team members', 'Supervise Resignation process and procedures and ensure sending the required data on time.', 'Managerial responsibilities:', 'Coach, support, and advise subordinates regularly, furthermore, appraise their performance.', 'Prepare different kind of reports that shows tasks’ progress.', 'Builds and maintain team spirit', 'Manage change', 'Participate in the development of departmental plan and processes.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Specialist, Business Development-Graduate Programs</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ESLSCA University</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/fFvmHGadA5Zq-Specialist-Business-Development-Graduate-Programs-ESLSCA-University-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1 To 2 Years</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Business', 'Development', 'business']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['2 to 4 years of experience in Sales &amp; Corporate Deals', 'Experience in Educational Institutes is Preferred .', 'High Level of Accuracy and attention to details', 'High level of Social &amp; Emotional Intelligence ', 'Excellent Communication Skills', 'Excellent Negotiation Skills.', 'Excellent Problem Solving Skills', 'Excellent Analytical Skills', 'Excellent level of English Language.', 'Good knowledge of all MS. Applications (Word, PowerPoint, Excel…)', 'Five Days a week', ' ']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Responsible for enhancing the overall sales and maintaining proper client relationship through continuous market scanning for potential leads, performing training needs assessment for clients, developing proposals tackling clients’ needs and ensuring a high-quality account management for new and current client while continuously working on maximizing business.', 'Accountabilities:', 'Performs regular market scans for potential leads.', 'Manages all new &amp; current accounts as assigned by Direct Manager.', 'Works on upselling and Increasing the business with current clients while attracting new ones', 'Identifies and works on penetrating new markets to improve overall Sales.', 'Attends conferences, meetings, and all industry related events to maximize network to develop new leads.', 'Prepares quotations and full proposals for clients.', 'Conducts Initial Training Needs Assessment and recommends the actual needs of the client.', 'Performs any other tasks requested from Manager, MBA/ PGD Admissions or Senior Director, Institutional Advancement.', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Branch Supervisor</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mokattam, Cairo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/oDHSr4nXeNu3-Branch-Supervisor-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Confidential, BONUSES</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5 To 7 Years</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Branch', 'Management', 'Communication', 'skills', 'Management', 'sales', 'skills', 'Sales', 'Customer', 'Service']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Sufficient knowledge of modern management techniques and best practises', 'Ability to meet sales targets and production goals', 'Familiarity with industry’s rules and regulations', 'Excellent organizational skills', 'Results driven and customer focused', 'Leadership and human resources management skills', 'BS in Business Administration or related field']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Assess local market conditions and identify current and prospective sales opportunities', 'Develop forecasts, financial objectives and business plans', 'Meet goals and metrics', 'Manage budget and allocate funds appropriately', 'Bring out the best of branch’s personnel by providing training, coaching, development and motivation', 'Locate areas of improvement and propose corrective actions that meet challenges and leverage growth opportunities', 'Share knowledge with other branches and headquarters on effective practices, competitive intelligence, business opportunities and needs', 'Address customer and employee satisfaction issues promptly', 'Adhere to high ethical standards, and comply with all regulations/applicable laws', 'Network to improve the presence and reputation of the branch and company', 'Stay abreast of competing markets and provide reports on market movement and penetration']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Market Researcher</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Venus International Free...</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/Szt4zcKVRLb2-Market-Researcher-Venus-International-Free-Zone-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Analysis', 'Communication', 'Market', 'Research', 'Marketing', 'Research', 'Skills', 'Web', 'Analytics', 'Management']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['- Exceptional analytical and strategic thinking abilities', '- Great capacity to understand and relay complex data across industries', '- Comprehensive knowledge of statistics and experience with modernized statistical technologies', '- Advanced computer literacy skills and a facility with search engines and web analytics', '- Superb ability to multitask while paying attention to detail', '- Excellent written and verbal communication skills', 'Preferred qualifications', '- Experience working as a market research analyst or in a similar role', '- Knowledge of data warehousing and mining', '- Familiarity using customer relationship management software such as Salesforce', '- Demonstrated success predicting market trends', '- Insatiable curiosity for digging into data and gaining market insights', '- Passion for statistical research and analysis']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['- Formulating the proper research strategy using different approaches to market research.', '- Using the proper data, either primary or secondary where the data used is either first-hand or second-hand, using either a quantitative or qualitative approach.', '- Acquiring the research materials including the methods and tools used to collect, analyze, and present data.', '- Executing the data collection taking into consideration ensuring the business makes accurate decisions ultimately.', '- Getting the data across distributed various sources and the larger portion of it is unstructured which requires an advanced AI consumer and market research platform to access this data, parse it, and make it available for analysis.', '- Analyzing the collected data that’s in raw form to yield information then providing insights using dedicated tools.', '- Using intelligence platforms and Integrating data in one location to enhance the synergistic relationship between using large volumes of data and using the tools.', '- Compiling the data and presenting reports to the relevant functions, people and stakeholders using visualized and accurate reports to enhance attention, understanding and memory of the stakeholders.', '- Using data to inform relevant stakeholders be it acquiring customers, beating the competition, or taking advantage of various opportunities.', '- Monitoring and forecasting marketing and sales trends.', '- Conducting in-depth market research and sharing insights with the marketing and sales teams on a regular basis', '- Reviewing and interpreting large data sets and organize them into spreadsheets, charts, and graphs', '- Consolidating data findings into reports to share with clients', '- Studying consumer behaviors and attitudes and writing up predictions for future sales trends', 'Responsibilities', '- Present data findings and insights during company-wide meetings', '- Study consumer behaviors and attitudes and write up predictions for future sales trends', '- Stay up to date on market trends, consumer and product research, and industry best practices']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sales Engineer</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Eta</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mohandessin, Giza</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/TjdygkY1W3Mk-Sales-Engineer-Eta-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5000 To 6000 EGP Per Month, 2% Commission</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0 To 2 Years</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Sales', 'Target', 'Presentation', 'Engineering', 'Development', 'technical', 'Pneumatic', 'Systems', 'Pneumatics', 'Hydraulic', 'Automation']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Proven track record selling complex enterprise solutions', 'Ability to forge strong, long-lasting relationships with senior executives', 'Ability to creatively explain and present complex concepts in an easy to understand manner', 'Solid technical background with understanding and/or hands-on experience in software development and web technologies', 'Excellent written and verbal communication skills', 'Excellent presentation and creativity skills', 'Willingness to travel', 'BA/BS degree or equivalent, preferably with a numeracy base']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>["visit client's site to present the company products and services", 'Partner with sales executives to plan, prepare and execute on strategic deals in complex sales cycles', 'Model the financial business case associated with each sales opportunity', 'Successfully match customer pain/requirements to proposed solutions', 'Create and deliver powerful presentations and demos that clearly communicate the uniqueness of the value proposition', 'Manage all technical aspects of RFP / RFI responses', 'Effectively communicate client needs to the R&amp;D teams for future product enhancements', 'Collect and document competitive intelligence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sales Engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MFCM - Mohamed El Fiky f...</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/uUh3tpcH0Dif-Sales-Engineer-MFCM---Mohamed-El-Fiky-for-Construction-Management-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10000 To 15000 EGP Per Month, Commissions And Bonuses Per Project</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Development', 'Presentation', 'Sales', 'sales', 'skills', 'Sales', 'Target', 'Communication', 'Engineering', 'Software', 'Development', 'Customer', 'Service', 'Enterprise']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Proven track record selling complex enterprise solutions', 'Ability to forge strong, long-lasting relationships with senior executives', 'Ability to creatively explain and present complex concepts in an easy to understand manner', 'Solid technical background with understanding and/or hands-on experience in software development and web technologies', 'Excellent written and verbal communication skills', 'Excellent presentation and creativity skills', 'Willingness to travel', 'BA/BS degree or equivalent, preferably with a numeracy base']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Communicate with leads and close deals', 'Model the financial business case associated with each sales opportunity', 'Successfully match customer pain/requirements to proposed solutions', 'Create and deliver powerful presentations and demos that clearly communicate the uniqueness of the value proposition', 'Manage all technical aspects of RFP / RFI responses', 'Effectively communicate client needs to the R&amp;D teams for future product enhancements', 'Collect and document competitive intelligence']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paymob Solutions</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/SCc3lNw8IO1J-Senior-Data-Engineer-Paymob-Solutions-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5 To 6 Years</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Engineering', 'Python', 'SQL', 'Database', 'Pandas', 'Computer', 'Science', 'Programming', 'Software', 'Development']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Bachelor’s degree in computer science, Computer Engineering', '4-6 years of experience.', 'Strong programming skills in languages such as Python.', 'Proficiency in data modeling techniques and data integration methodologies.', 'Experience with ETL tools and data integration frameworks.', 'Knowledge of relational databases, SQL, and database design principles.', 'Familiarity with big data technologies and distributed computing frameworks (e.g., Hadoop, Spark).', 'Understanding of data warehousing concepts and cloud-based data storage services.', 'Experience with data processing and manipulation libraries (e.g., pandas, NumPy).', 'Familiarity with data quality assurance processes and data governance principles.', 'Experience with data orchestration and scheduling tools like airflow.']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[' Job Description:', ' Design, build, and maintain scalable and efficient data pipelines for extracting, transforming, and loading (ETL) data from various sources into target systems, data warehouses, or data lakes. Ensure the reliability, performance, and integrity of data pipelines.', 'Develop data integration strategies to consolidate data from multiple sources, ensuring data consistency and accuracy.', 'Implement data transformation processes to convert and cleanse data according to defined business rules and data quality standards. Handle data cleansing, data standardization, and data enrichment tasks to improve data quality and usability.', 'Establish and maintain scalable data storage systems such as relational databases, NoSQL databases, or cloud-based data warehouses. Optimize data storage and retrieval for efficient data processing and analysis.', 'Utilize big data technologies and frameworks such as Apache Hadoop, Apache Spark, or cloud-based services like Amazon Redshift, DMS…etc. to handle large volumes of structured and unstructured data. Implement distributed computing techniques for parallel processing and high-performance data processing.', 'Develop and implement data quality assurance processes, including data validation rules, data profiling, and data quality monitoring. Identify and address data quality issues, anomalies, or inconsistencies in a proactive and timely manner to decide as per high quality data.', 'Monitor and optimize data pipelines, data processing workflows, and data storage systems for performance and efficiency. Identify and resolve bottlenecks, optimize queries, and tune data processing operations for improved system performance to avoid any system failures.', 'Ensure data security and compliance with privacy regulations by implementing appropriate data access controls, encryption mechanisms, and data anonymization techniques. Adhere to data governance policies and procedures.', 'Collaborate with cross-functional teams, including data scientists, analysts, and business stakeholders, to understand their data requirements and provide technical expertise. Document data engineering processes, data flows, and system configurations for knowledge sharing and future reference.', 'Stay updated with emerging technologies, trends, and best practices in the field of data engineering, continuously learn and evaluate new tools, techniques, and frameworks to improve data engineering capabilities and drive innovation.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Technical Office Engineer - Interior Design</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TRI Interior Design and ...</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/mszkAxWBcQHO-Technical-Office-Engineer---Interior-Design-TRI-Interior-Design-and-Finishin-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['Engineering', 'Project', 'Management', 'Civil', 'Technical', 'Office']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['3-5 years of experience in technical office &amp; site supervision ', '3 to 5 years of experience in Finishing Works &amp; Construction', 'Mastering different drawing tools.', 'Strong project management and negotiation skills.', 'High team work skills.', 'Problem solver']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Prepare, review, or adjust shop drawings for architectural activities and coordinate between different disciplines to solve any conflict between them', 'Ensure the distribution of the approved shop drawings on all concerned parties.', 'Produce quantity surveying of project’s materials and prepare the project’s BOM and BOQs', 'Prepare material submittals for Consultant’s approval.', 'Prepare as-built drawings at the end of the project and hand over to the project consultant.', 'Study and review all tender documents including tender instructions, general and private contract terms, specifications, and drawings.', 'Follow up subcontractor’s progress through frequent progress report.', 'Prepare &amp; review subcontractors’ invoices according to work executed on site then issue the due order to pay.', 'Coordinate structural, electrical, and mechanical designs, and determine a method of presentation to graphically represent building plans.', 'Resolve arising conflicts between various design components.', 'Draw and print rough and detailed scale plans for foundations, buildings, and structures based on preliminary concepts, sketches, engineering calculations, specification sheets, and other data.', 'Lay out and plan interior design arrangements using computer-assisted drafting (CAD) equipment and software.', 'Determine and direct procedures and instructions to be followed according to design specifications and quantity of required materials.', 'Obtain and assemble data to complete architectural designs, visiting job sites to compile measurements as necessary.', "Analyze technical implications of architect's design concept, calculating weights, volumes, and stress factors.", "Represent architect on construction site, ensuring builder compliance with design specifications, and advising on design corrections under architect's supervision", 'Check dimensions of materials to be used and assign numbers to lists of materials.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Full Stack Team Lead/ Engineering Manager</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Lagos, Nigeria</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/ahdzZ4iFyDbs-Full-Stack-Team-Lead-Engineering-Manager-Lagos-Nigeria</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>More Than 5 Years</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Engineering', 'Information', 'Technology', '(IT)', 'Management', 'Computer', 'Science', 'Node.js', 'React', 'React.js', 'MongoDB', 'Machine', 'Learning', 'Software', 'Engineering', 'Software', 'Development', 'Software', 'Development']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['• You will create a plan to continue building and scaling our platform one piece at a time,', 'supporting our ability to deliver a personalized experience to program participants and', 'empower our health coaches to deliver timely and effective interventions.', '• You will lead a team of software engineers to execute against that plan, owning the', 'team’s technical strategy and roadmap.', '• Grow and manage a high-performance Engineering team', '• You will partner with our Recruiting team to hire the best talent.', '• You will mentor and guide the professional and technical development of team', 'members.', '• You will establish the processes needed to achieve operational excellence in critical', 'areas, including SLA management, systems reliability, and developer productivity.', '• You will establish and own key performance metrics in close collaboration with', 'Engineering and Product Leadership.', '• You’ll build cross-functional relationships with software engineers, product managers,', 'data scientists, and technical program managers to understand stakeholder needs and', 'deliver on those needs.', '• Drive pan-engineering initiatives as an Engineering leader', '• You will work with the Engineering Leadership team to develop new initiatives and', 'improve existing processes across the entire engineering organization, including data', 'quality and system observability.', '• You’ll work with Engineering and Product Leadership to continuously reduce technical', 'debt and make improvements in our systems.']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Global-based engineering team. Our team is responsible for enabling mDoc’s growth and', 'adaptability through building independent services with tightly scoped, domain-appropriate', 'responsibilities. We implement new features to be robust and scalable, supporting efforts', 'toward platform extensibility and interoperability while helping our health coaches drive', 'successful health outcomes for our program participants.', 'In this role, you will be not just a manager; you will also be team lead, contributing code', 'alongside the people you hire. (The expectation is that you will write code about 50% of the', 'time.)', 'You will be free to innovate and work closely with our partners to see the big picture and figure', 'out novel ways to deliver results. The ideal candidate is an individual with exceptional', 'leadership skills and hands-on experience in building information-rich, intuitive, user-centered', 'applications.', 'Guided by our shared values, we thrive in an environment where collaboration and openness', 'are valued. We believe that innovation is powered by perspective and that teamwork and', 'respect for one another lead to superior results.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Production Engineer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Decorative Glass And Ara...</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/Jhnp794IYmxb-Production-Engineer-Decorative-Glass-And-Arab-Union-Glass-Group-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2 To 3 Years</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Engineering', 'Mechanical', 'Engineering', 'Production']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Bachler degree in Production Engineering.', 'Oversee and optimize production processes to ensure maximum efficiency and quality.', 'Develop and implement production plans, schedules, and standards.', 'Monitor and analyze production data to identify areas for improvement and cost reduction.', 'Troubleshoot production issues and implement corrective actions.', 'Collaborate with other departments to ensure smooth production flow and meet delivery deadlines.', 'Ensure compliance with safety regulations and quality standards.']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Talented and dedicated Production Engineer to join our dynamic team. The ideal candidate will have a strong understanding of production processes, a passion for efficiency, and the ability to drive continuous improvement.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Quality Engineer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Egyptian German Automoti...</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/NSQTPL35zNre-Quality-Engineer-Egyptian-German-Automotive-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1 To 3 Years</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Automotive', 'Control', 'Engineering', 'QC', 'QC', 'Engineer', 'Quality', 'Assurance', 'quality', 'Quality', 'Control', 'Industrial', 'Manufacturing']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['BSc. in Engineering or relevant field.', ' 1 - 3 years of experience in similar role or relevant. ', 'Manufacturing background is a plus.', ' High ability to interpret data and statistics.', ' In-depth knowledge of quality control Standards &amp; procedures.', ' Strong Leadership skills.', 'Very Good command English language.', ' Excellent communication ski ', ' Work Conditions: ', '* Location: 4th Industrial Zone, 6th of October City.', '* 2 Days off.', '* Transportation is provided.', '', ' ']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Lead initiatives to drive continuous improvement in quality processes and systems.', 'Implement and enforce quality assurance procedures to ensure consistency and compliance with industry standards and regulations.', 'Conduct regular inspections of the manufacturing process at various stages to identify any defects or deviations from quality standards.', 'Lead a team of quality control inspectors and technicians, overseeing their daily activities, assigning tasks, and providing guidance to ensure the smooth operation of quality control processes.', 'Conduct daily meetings with the quality control team and production teams to discuss ongoing issues, prioritize tasks, and communicate any changes in procedures or standards.', 'Conduct audits of manufacturing processes and products according to standards whenever defects are repeated. This involves thorough examination and assessment to identify areas for improvement and ensure compliance with quality requirements.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Electrical Engineer (Sokhna Plant)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FlexFilms Egypt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ain Sokhna, Suez</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/SvOkjjBteZHf-Electrical-Engineer-Sokhna-Plant-FlexFilms-Egypt-Suez-Egypt</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1 To 3 Years</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Electrical', 'Engineering', 'Electrical', 'Manufacturing', 'Engineering']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['1-3 years of experience at manufacturing electrical field.', 'Creative thinking and innovation.', 'Advanced problem-solving and critical thinking skills.', 'Effective verbal and written communication skills.', 'Ability to work under pressure. ']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Troubleshooting and solving any electrical system errors.', 'Develop manufacturing processes according to global engineering codes and standards.', 'Ensure that installations and applications are in line with safety standards.', 'Collaborate with engineers and technicians to design and apply new system processes.', 'Summarize data and report on test results.', 'Examine needs on new equipment, calculate costs and help prepare budgets.', 'Responsible for preventive maintenance and inspection plans.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Quantity Surveyor Engineer</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>New Generation Developme...</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Heliopolis, Cairo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/qIQmFacNhlrO-Quantity-Surveyor-Engineer-New-Generation-Developments-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15000 To 20000 EGP Per Month</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['AutoCAD', 'Civil', 'Engineering', 'Engineering', 'Quantity', 'Quantity', 'Surveying', 'Quantity', 'Surveyor', 'Quantity', 'surveyor', 'Engineer', 'surveyor', 'Construction', 'Civil']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['3-5 years of experience in projects', 'Strong analytical and critical thinking skills.', 'Sound knowledge of construction.', 'Excellent negotiating and interpersonal skills.', 'Ability to organize, plan, and strategize.']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['Review &amp; Update Projects budget and value for money proof with arranging the payments', 'Maintains the project filing system of all payments, variations and financial claims', 'Quantity Surveying, Preparing &amp; Reviewing takeoff sheets for all project items', 'Quantity estimates for progress payment purposes', 'Gathers all data and documents on site and from other departments for main contract payments, variations and financial part of claims', 'Prepare Monthly interim payment Certificates to be submitted by client', 'Reviewing New Variation orders and submit Particulars with technical and Cost Impact', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Utility Engineer</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FlexFilms Egypt</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ain Sokhna, Suez</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/a8tSNbCmjCU9-Utility-Engineer-FlexFilms-Egypt-Suez-Egypt</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1 To 3 Years</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Manufacturing', 'Maintenance', 'Utilities', 'Engineering']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['1-3 years of experience at manufacturing utilities field.', 'Creative thinking and innovation.', 'Advanced problem-solving and critical thinking skills.', 'Effective verbal and written communication skills.', 'Ability to work under pressure. ']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['Monitor daily preventive maintenance scheduled adherence.', 'Maintain, troubleshoot, repair, and test mechanical and electrical equipment.', 'Ensure that due care is taken while machine is in operation.', 'Plan required Maintenance activities.', 'Ensure that there is no wastage of electrical energy and other resources like water.', 'Make recommendations for more efficient energy consumption methods.', 'Identify and evaluate utility data to assure reasonable and adequate utility service.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Senior Google workspace Engineer</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cloud11</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/kMCHAoEMy8MO-Senior-Google-workspace-Engineer-Cloud11-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Communication', 'Integration', 'Security', 'Troubleshooting', 'Engineering', 'Computer', 'Science', 'Automation']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['Deep understanding of core messaging functions: user management, security, message routing, integrations, MDM (Mobile Device Management)', 'Excellent problem-solving and troubleshooting skills', 'Scripting/automation and API integration experience are a plus', 'Strong communication, presentation, and interpersonal skills', 'Passionate about innovation, collaboration, and exceeding customer expectations']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mechanical Engineer</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nahdet Misr Publishing G...</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/zFEF9Q1i5MOk-Mechanical-Engineer-Nahdet-Misr-Publishing-Group-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Mechanical', 'Engineering', 'Engineering', 'Maintenance', 'Mechanical']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['Experience: from 2 - 5 Years', 'Good command of English language', 'Excellent Analytical Skills']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['Measuring the performance of mechanical components, devices and engines', 'Agreeing budgets, timescales and specifications with clients and managers', 'Maintaining and modifying equipment to ensure that it is safe, reliable and efficient', 'Undertaking relevant research', 'Producing and implementing designs and test procedures', 'presenting designs to managers and clients', 'testing, evaluating, modifying and re-testing products', 'Writing reports and documentation', 'Providing technical advice', 'Analyzing and interpreting data.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Abuja, Nigeria</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/dnMqpK8Chn1B-Backend-Developer-Abuja-Nigeria</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1140 To 1200 USD Per Month</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4 To 8 Years</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['back-end', 'Java', 'JavaScript', 'MongoDB', 'Software', 'Development', 'Software', 'Engineering', 'Computer', 'Science']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['• Integration of user-facing elements developed by a front-end developer with server-side', 'logic', '• Building reusable code and libraries for future use', '• Optimization of the application for maximum speed and scalability', '• Implementation of security and data protection', '• Design and implementation of data storage solutions', '• Intermediate understanding of front-end technologies and platforms, such as JavaScript,', 'HTML5, and CSS3', '• Strong understanding accessibility, security and HIPAA compliance', '• User authentication and authorization between multiple systems, servers, and', 'environments', '• Ability to integrate multiple data sources and databases into one system', '• Management of hosting environment, including database administration and scaling an', 'application to support load changes', '• Data migration, transformation, and scripting', '• Setup and administration of backups', '• Outputting data in different formats', '• Understanding differences between multiple delivery platforms such as mobile vs desktop,', 'and optimizing output to match the specific platform', '• Strong ability to create database schemas that represent and support business processes', '• Implementing automated testing platforms and unit tests', '• Expert knowledge of a back-end programming language PHP, Python, Java, JavaScript', '• Proficient understanding of code versioning tools, such as Git, Bitbucket', '• Proficient understanding of OWASP security principles', '• Understanding of “session management” in a distributed server environment']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['data between the server and the users. Your primary focus will be development of all serverside', 'logic, definition and maintenance of the database, and ensuring high performance and', 'responsiveness to requests from the front-end. You will also be responsible for integrating the', 'front-end elements built by your coworkers into the application. A basic understanding of', 'front-end technologies is therefore necessary as well.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NetSuite Developer</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>WUZZUF</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/8huEMAL8lFtO-NetSuite-Developer-WUZZUF-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Computer', 'Science', 'Information', 'Technology', '(IT)', 'NetSuite', 'SuiteBuilder', 'Suitescript', 'ERP', 'Netsuite', 'Developer', 'Accounting', 'Computer', 'Engineering', 'JavaScript', 'SOAP', 'Software', 'Development', 'REST', 'API', 'Integration', 'Oracle']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['  Strong proficiency in Oracle NetSuite with a deep understanding of its core modules (e.g., Financials, CRM, ERP).', ' Expertise in SuiteScript and scripting languages (e.g., JavaScript).', ' Experience with API development (REST and SOAP) and integration methodologies.', ' Knowledge of database concepts and SQL.', ' Excellent problem-solving and analytical skills to identify and resolve complex issues.', ' Strong communication and interpersonal skills to effectively collaborate with team members and stakeholders.', ' Ability to work independently and meet deadlines.']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['Primary Responsibilities', 'Saved Search Development:', 'Create, modify, and optimize saved searches to meet specific business requirements.', 'Develop complex saved searches involving multiple criteria, formulas, and joins.', 'Ensure saved searches are efficient, accurate, and user-friendly.', 'API Integrations:', 'Design and implement integrations between NetSuite and external systems using REST and SOAP APIs.', 'Develop custom API scripts and workflows to automate data exchange and synchronization.', 'Troubleshoot and resolve integration issues to ensure seamless data flow.', 'System Investigations and Error Resolution:', 'Investigate and diagnose system errors, performance bottlenecks, and data inconsistencies.', 'Identify root causes and implement corrective actions to resolve issues promptly.', 'Provide technical support and guidance to end-users regarding system functionality and troubleshooting.', 'Secondary Responsibilities', 'Customization and Scripting:', 'Develop custom scripts and customizations using SuiteScript to extend NetSuite functionality.', 'Create user interfaces, reports, and workflows to streamline business processes.', 'Data Migration:', ' Assist in data migration projects, including data mapping, cleansing, and validation.', 'Documentation:', 'Create and maintain technical documentation for developed solutions, including code comments, diagrams, and user manuals.', 'Continuous Learning:', 'Stay up-to-date with the latest NetSuite features, best practices, and industry trends.', 'Participate in training and development opportunities to enhance technical skills.', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Senior Full Stack Developer .Net + Angular</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ICIS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/QuMKHgkOYCYC-Senior-Full-Stack-Developer-Net-Angular-ICIS-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>More Than 5 Years</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Engineering', 'Computer', 'Science', 'Information', 'Technology', '(IT)', 'Oracle', 'SQL', 'Asp.Net', 'MVC', 'HTML5', 'CSS', 'AJAX', 'jQuery', 'javaScript', 'XML', 'AngularJS', 'ASP.NET', 'Web', 'Development', 'Web', 'Design', '.NET', 'Angularjs', 'Angular', '6', 'HTML', 'JavaScript', 'CSS3', 'Wireframes', 'Visual', 'Design', 'GIT', 'VSTS', 'C#']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['Bachelor of Computer Science Degree required', 'Experience in testing tools and frameworks like Jasmine, Protractor, or similar.', '3+ years’ experience with C#, ASP.NET MVC 5, ADO.NET, &amp; Entity Framework.', 'Excellent understanding of OOP, n-tier architecture, and design patterns.', 'Good Knowledge in HTML5, CSS3, JavaScript, JQuery, AJAX, Type Script, JQuery.', 'Good Knowledge in Angular 5+ / Angularjs.', 'Experience with web service development including SOAP or RESTful web services', 'Good Knowledge in.Net 3.5, 4.0 and 4.5 is plus.', 'Good Knowledge of WCF / Web API is a plus.', 'Very Good knowledge in ORM and LINQ.', 'Knowledge of at least one of (Crystal reports, Open XML, and reporting services).', 'Knowledge in queues, multi-threading, parallelization, and distributed caching servers is a plus.', 'Experience in web-based systems architecture, service-based architecture.', 'Knowledge of VSTS / GIT or any other Version Control System.', 'Additional frameworks such as Vue or React or even Node.js are plus.', 'Fair knowledge of Oracle DB, ability to write Stored Procedures &amp; read entity diagrams.', 'Ability to complete all phases of the software development life cycle including analysis, design, implementation, testing, and support', 'Excellent analytical, problem-solving/diagnostic skills.', 'Good work ethics, Team player, positive and self-motivated.', 'Strong Communication &amp; Interpersonal skills.', 'Flexibility to travel when needed (mainly Saudi Arabia and could be other destinations if required, with travel allowance per-diem).']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['Participate in the analysis &amp; design of new functional requirements and systems.', 'Build application components using .NET Framework 4.5+, ASP.NET MVC 5+, Oracle DB, WCF Web Services/WCF Data Services, WWF, Angular 5+, JSON, XML, RESTful Services and MS SQL RDBMS', 'Develop the backend of the solution, including the service layer, business logic layer, and data access layer.', 'Develop the integration parts of the system in order to communicate with the internal and external systems using WCF.', 'Develop and write high-quality coding standards.', 'Assist and support other team members on multiple projects']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Software Tester</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">qTech. </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mansoura, Dakahlia</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/BpdZebifhPNd-Software-Tester-qTech-Dakahlia-Egypt</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>More Than 1 Year</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Quality', 'Assurance', 'Quality', 'Control', 'Engineering', 'Quality', 'SQL', 'Zephyr', 'Testing', 'Software', 'Testing', 'Agile', 'Project', 'Management', 'Information', 'Systems', 'Information', 'Technology', '(IT)', 'Computer', 'Science', 'Computer', 'Engineering', 'QA', 'Software', 'QC', 'Software', 'Engineering', 'Troubleshooting', 'Test', 'ITI']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['ITI Testing certificate is a plus .', 'Bachelor’s degree in Computer Science, Software Engineering, or similar field.', 'Proven work experience as a Software Test Engineer.', 'Strong attention to detail.', 'Ability to collate data and compile test reports.', 'Strong  Analytical  skills.']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['Designing test procedures to evaluate each software product.', 'Running test programs to ensure that testing protocols evaluate the software correctly.', 'Tweaking the software testing systems for maximum performance.', 'Finalizing and documenting testing procedures.', 'Completing final tests and creating test reports.', 'Presenting test reports to management and suggesting software fixes.', 'Reporting and documenting technical issues.', 'Review and analyze system specifications.', 'Execute test cases (manual or automated) and analyze results.', 'Evaluate product code according to specifications.', 'Report bugs and errors to development teams.', 'Conduct post-release/ post-implementation testing.', 'Work with cross-functional teams to ensure quality throughout the software development life-cycle.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cmbrs</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/rQPeFuXV77oz-Backend-Developer-cmbrs-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3 To 6 Years</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['backend', 'Computer', 'Science', 'developer', 'Information', 'Technology', '(IT)', 'Software', 'Development', 'Software', 'computer', 'Development', 'Engineering']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Proven software development experience and Android skills development', 'Proven working experience in Android app development and', 'Have published at least one original Android app', 'Experience with Android SDK', 'Experience working with remote data via REST and JSON', 'Experience with third-party libraries and APIs', 'Working knowledge of the general mobile landscape, architectures, trends, and emerging technologies', 'Solid understanding of the full mobile development life cycle.']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Collaborate with cross-functional teams to define, design, and ship new features', 'Work with outside data sources and APIs', 'Unit-test code for robustness, including edge cases, usability, and general reliability', 'Work on bug fixing and improving application performance', 'Continuously discover, evaluate, and implement new technologies to maximize development efficiency', 'Backend develper specialist in api, my sql.mariaDB, jason, Database, Paython, php, unix server managment, with knowledge in vue js, next js']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Flutter Developer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Hurry Apps</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/mffBTxqDKP8q-Flutter-Developer-Hurry-Apps-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3 To 6 Years</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Engineering', 'flutter', 'Development', 'Software', 'Engineering', 'Software', 'Software', 'Development', 'Information', 'Technology', '(IT)', 'Computer', 'Science', 'Android', 'Git', 'JSON', 'UI']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['Minimum 3 years proven experience as an application developer and cross platforms (Experience in Flutter app development).', 'Have published at least one original Android app.', 'Strong knowledge of Dart programming language.', 'Participation in the process of analysis, designing, implementation, and testing of new apps.', 'Knowledge of mobile UI design principles and best practices.', 'Experience with version control systems such as Git.', 'Good problem-solving and analytical skills.', 'Strong verbal and written communication skills.', 'Strong experience in SQL Database and NOSQL (realm, hive, firebase Realtime, firebase Firestore, shared preferences).', 'Good understanding of state management (e.g., Provider, Bloc), animations, app architecture.', 'Experience with third-party libraries and APIs and handling JSON data.', 'Knowledge of the library / tools e.g., Firebase Crashlytics, Google Maps.', 'Familiarity with OOP design principles.', 'Familiarity with Functional Programming.', 'Ability to work in a team environment.', ' If you are passionate about Flutter app development, have a proven track record in mobile app development, and thrive in a collaborative environment, we invite you to apply and be a key player in shaping the future of our projects.']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['Responsibilities:', 'As a Flutter Developer, you will be responsible for:', 'Create multi-platform apps for iOS/Android using Flutter Development Framework.', 'Collaborate with cross-functional teams to define, design, and ship new features', 'Write clean, maintainable, and efficient code', 'Participate in code reviews to ensure code quality and best practices', 'Stay up-to-date with the latest trends and technologies in mobile development.', 'Monitoring the performance of live apps and work on optimizing them at the code level', 'Identifying and resolving bottlenecks, rectifying bugs and enhancing application performance', 'Translate designs and wireframes into high quality code', 'Ensure the best possible performance, quality, and responsiveness of the application', 'Microcode enhancements within mobile platforms like Android/iOS Flutter widgets for iOS and Android.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Backend Developer Node.js</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>مهام الخليج- Mham</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Kuwait City, Kuwait</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/sLDapUIkpIFx-Backend-Developer-Nodejs-%D9%85%D9%87%D8%A7%D9%85-%D8%A7%D9%84%D8%AE%D9%84%D9%8A%D8%AC--Mham-Kuwait-City-Kuwait</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2 To 3 Years</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['backend', 'Backend', 'developer', 'Computer', 'Science', 'Node.js', 'node', 'JavaScript', 'APIs', 'AWS', 'Engineering', 'Git', 'Information', 'Technology', '(IT)', 'MongoDB', 'Programming', 'Software', 'Development', 'MySQL']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['Proven experience (2+ years) in backend development with Node.js.', 'Expertise in JavaScript/TypeScript and frameworks such as Express.js or NestJS.', 'Experience with RESTful APIs and working with GraphQL (optional but preferred).', 'Strong understanding of asynchronous programming, event-driven architecture, and non-blocking I/O.', 'Proficient in working with databases: both relational (e.g., PostgreSQL, MySQL) and NoSQL (e.g., MongoDB).', 'Knowledge of Docker, Kubernetes, or other containerization technologies.', 'Familiarity with cloud platforms such as AWS, Azure, or Google Cloud.', 'Experience in version control systems like Git.', 'Understanding of security best practices (OAuth, JWT, encryption).', 'Experience with testing frameworks (Jest, Mocha) and deployment pipelines (CI/CD).', 'Soft Skills:', 'Leadership and team management skills with experience mentoring junior developers.', 'Strong problem-solving skills and attention to detail.', 'Ability to work collaboratively in a cross-functional team environment.', 'Excellent communication skills to convey technical concepts to non-technical stakeholders.', 'Time management and project management experience, with the ability to meet deadlines and manage multiple priorities.', 'Education:', "Bachelor's degree in computer science, Engineering, or a related field (preferred but not required with proven experience)."]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['Responsibilities:', 'Design, develop, and maintain backend services and APIs using Node.js.', 'Lead architectural discussions and contribute to strategic planning for backend infrastructure.', 'Optimize performance and scalability for server-side logic and databases.', 'Collaborate with front-end developers to integrate user-facing elements with server-side logic.', 'Implement security and data protection measures.', 'Work with relational and non-relational databases (e.g., MongoDB, PostgreSQL).', 'Write unit tests and ensure code quality through reviews and best practices.', 'Troubleshoot, debug, and upgrade existing systems.', 'Stay updated with the latest trends and technologies to enhance the backend development processes.', 'Mentor and guide junior developers.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Senior Backend Developer PHP / Laravel</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sulfah</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/Z2Nao8yWsWCj-Senior-Backend-Developer-PHP-Laravel-Sulfah-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Computer', 'Engineering', 'Computer', 'Science', 'Information', 'Technology', '(IT)', 'PHP', 'Software', 'Software', 'Development']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['+5 years of experience in software configuration management.', 'Strong knowledge in SDLC Management. Experience with version control tools (DevOps, GIT, ...) from Management and administration point of view.', 'Good knowledge in DevOps, CI/CD methodologies and tools (Jenkins, DevOps pipelines, Docker, Containers).', 'Knowledge with the various application Servers, ex. Apache, NGINX.', 'Knowledge in SharePoint administration. Knowledge in Scripting languages, ex. PowerShell, Bash.', 'Strong knowledge in release management process and regulations.', 'Strong skills in troubleshooting deployments and configuration issues.', 'Familiar with various operating systems (Windows, Linux and MacOS).']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['', 'Responsibilities', 'Write PHP Backend Code using Laravel framework with best practices', 'Design client-side and server-side architecture', 'Develop and manage well-functioning databases and applications', 'Write effective APIs using best practices', 'Test software to ensure responsiveness and efficiency', 'Troubleshoot, debug and upgrade software', 'Create security and data protection settings', 'Build features and applications with a mobile responsive design', 'Refactor Legacy code and apply modern software Architectures', 'Write technical documentation']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IT Service Desk</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Elsewedy industries</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ataqah, Suez</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/4fJtBJSSuDLI-IT-Service-Desk-Elsewedy-industries-Suez-Egypt</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['computer', 'CCNA', 'Help', 'desk', 'Information', 'technology', 'Information', 'Technology', '(IT)', 'Technology', 'MCSA', 'Computer', 'Science']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Bachelor’s degree in information technology, Computer Science.', 'Work Experience', 'From 1 to 4 years of experience in IT Function.', 'Technical Skills', 'Having (MCSA &amp; CCNA) Certificate is a plus.']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Experience in supporting end users on a corporate network; specifically support involving Switches, Subnets, Routers, VLANs, DNS, Network Shares, Network Storage, File/Print services, Directory Services, etc. is preferred.', 'Diagnose and troubleshoot technical issues, including account setup and network configuration.', 'Deploy new user hardware, OS upgrade, SW updates &amp; troubleshooting end user issues day-to-day issues.', 'Respond to client issues, applications, and hardware, and take corrective actions.', 'Diagnose (hardware, software, printing solutions, peripherals, &amp;network) to conclude the optimal way to resolve issues.', 'Perform desktop application installations, upgrades, and other support and maintenance activities.', 'Provision storage solutions, maintain backup jobs to develop backup policies and data recovery procedures to ensure save guarding of data as well as integrity &amp; privacy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PHP Software Developer with Symfony and Laravel Expertise</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Charisma Design</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/3atZoLGfQzhv-PHP-Software-Developer-with-Symfony-and-Laravel-Expertise-Charisma-Design-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Agile', 'Computer', 'Science', 'API', 'Information', 'Technology', '(IT)', 'PHP', 'Laravel', 'Software', 'Development']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['Application Development: Utilize your strong PHP development skills to design, code, and test web applications that meet project requirements.', 'Symfony and Laravel Expertise: Leverage your in-depth knowledge of Symfony and Laravel frameworks to build high-performance, maintainable, and scalable applications.', 'Database Integration: Integrate databases seamlessly into web applications, ensuring data consistency and reliability.', 'Code Optimization: Continuously improve the performance and efficiency of existing codebases, identifying and resolving bottlenecks.', 'Security: Implement security best practices to safeguard applications against vulnerabilities and threats.', 'Collaboration: Work closely with front-end developers, UI/UX designers, and other team members to ensure the seamless integration of front-end and back-end components.', 'Documentation: Maintain clear and concise documentation for code, processes, and APIs to facilitate collaboration and knowledge sharing.', 'Quality Assurance: Perform thorough testing, including unit testing, integration testing, and end-to-end testing, to ensure the reliability of software applications.', 'Version Control: Utilize version control systems (e.g., Git) to manage codebase changes effectively.', 'Qualifications:', "Bachelor's degree in Computer Science, Software Engineering, or a related field (or equivalent work experience).", 'At least 2 years proven experience as a PHP Software Developer, with a focus on Symfony and Laravel frameworks.', 'Strong knowledge of PHP, MySQL, and related web technologies.', 'Experience with front-end technologies such as HTML, CSS, and JavaScript is a plus.', 'Familiarity with RESTful APIs and web services.', 'Knowledge of best practices in software development, including coding standards, design patterns, and version control.', 'Excellent problem-solving and debugging skills.', 'Strong communication and teamwork abilities.', 'Ability to adapt to new technologies and programming languages as needed.', 'Why Join Us:', 'Opportunity to work on exciting projects that challenge your skills and creativity.', 'Collaborative and innovative work environment.', 'Competitive compensation and benefits package.', 'Professional development opportunities to enhance your skills and advance your career.', 'If you are a skilled PHP Software Developer with expertise in Symfony and Laravel frameworks and are ready to take on exciting challenges, we encourage you to apply and be part of our team dedicated to building cutting-edge web applications. Join us in creating the digital solutions of tomorrow!', 'Grow together with one of the fastest growing eCommerce companies in Egypt and Europe.', 'Hardware and operating system (Mac, Windows or Linux) not for private use.', 'International working environment and English as a company language.', 'Agile work environment (MOVE) and cross-functional teams.', 'Social Insurance.', 'Medical insurance.']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['Are you a talented PHP Software Developer with a passion for crafting robust web applications and restful APIS?  Do you have extensive experience working with Symfony and Laravel frameworks? If so, we have an exciting opportunity for you to join our dynamic team.', 'Position Overview:', "As a PHP Software Developer at our company, you will play a crucial role in the development and maintenance of our web applications. Your expertise in Symfony and Laravel frameworks will be instrumental in creating scalable, efficient, and secure software solutions. You will collaborate closely with cross-functional teams to design, develop, test, and deploy innovative web applications that meet our clients' needs."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Budget Accountant</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Giza, Egypt</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/d6CPDZrdtHo5-Budget-Accountant-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3 Years</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Budget', 'Management', 'Accounting']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['Knowledge of financial aspects related to the hotel and tourism industry.', 'Strong skills in financial data analysis and proficiency in accounting software.', 'Attention to detail and ability to meet deadlines.']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['Provide financial performance reports on projects to management.', 'Improve financial processes and assist in financial planning for new projects.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mobile App Developer - React Native</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Esmart Company</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/ql6ysrTAUChh-Mobile-App-Developer---React-Native-Esmart-Company-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>More Than 4 Years</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Mobile', 'Development', 'React', 'Native']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['3+ years experience as a Senior Mobile App Developer focusing on React Native, Git, and Android/iOS development.', 'Strong understanding of React Native components, lifecycles, and state management.', 'Proficient in Git version control, including branching, merging, and conflict resolution.', 'Knowledge of mobile app design principles, UX/UI best practices, and responsive design.', 'Familiarity with testing frameworks such as Jest for unit testing in React Native.', 'Excellent collaboration and communication skills in a cross-functional team environment.', 'Familiarity with collaboration tools such as Jira, Teams, etc…']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['Responsibilities:', 'Develop and maintain feature-rich, cross-platform mobile applications for Android and iOS using React Native.', 'Utilize Git for version control, following best practices for collaboration and code quality.', 'Collaborate with backend developers to integrate APIs and ensure effective communication between frontend and backend systems.', 'Optimize mobile applications for performance, responsiveness, and platform-specific nuances on both Android and iOS.', 'Design and implement state management solutions, considering factors such as data persistence and synchronization.', 'Collaborate with UX/UI designers to implement responsive and visually appealing mobile interfaces for both platforms.', 'Develop and execute unit tests using Jest and other testing frameworks to ensure code reliability.', 'Set up and maintain CI/CD pipelines for automated build and deployment processes.', 'Troubleshoot and debug issues promptly, providing effective solutions to ensure a smooth user experience on both Android and iOS.', 'Stay updated on the latest industry trends, tools, and best practices in mobile app development.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BIM Architect</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Decorai design  </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/pw3vOGbQwcpt-BIM-Architect-Decorai-design-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20000 To 25000 EGP Per Month</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Architecture', 'BIM', 'Revit', 'BIM', 'Architect']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['BA/BS degree in Architecture.', 'Minimum experience 1 - 3 years.', 'Drafting &amp; detailing.', 'Excellent knowledge of using Revit.', 'Other Skills:', 'Knowledge of architecture and architectural principles and techniques.', 'Knowledge of the methods and techniques of CAD design &amp; Revit.', 'Skill in drafting architectural plans.']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['Work with architects to generate detailed and accurate drawings from the concept stage up to the issue for the construction package. ', 'Assists in developing and coordinating the development of detailed working drawings and specifications after approval for the obtained project.', 'Work collaboratively with office design team members to ensure the accuracy of design work.', 'Finalize drafting projects using Revit &amp; other software…. etc.', 'Coordinate the collection of data and incorporate this information into drawings and schematics.', 'Ability the checklist completion for the deliverable sheets.', 'Ability to Comply with codes / Checklists.', 'Assist team members in overcoming any technical problems with the knowledge of others.', 'Assist project seniors in fulfilling their obligations properly.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Manual Tester Internship</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>kafiil</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/internship/Ad9yFQ8DmJ0P-Manual-Tester-Internship-kafiil-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0 To 1 Year</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Software', 'Testing', 'Computer', 'Science', 'Information', 'Technology', '(IT)', 'API', 'Postman', 'Quality', 'Assurance', 'Test', 'Cases', 'Testing', 'Software']</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Strong analytical and problem-solving skills to identify and troubleshoot issues effectively.', 'Familiarity with UI/UX design principles and frontend development concepts.', 'Familiarity with testing API endpoints using tools like Postman or similar tools.', 'Excellent communication skills, with the ability to collaborate effectively with cross-functional teams.', 'Detail-oriented mindset and strong organizational skills to manage multiple testing tasks simultaneously.', 'Familiarity with creating test cases and test scenarios to cover various business logic and API functionalities.']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Analyze and understand the business requirements and logic behind our software applications.', 'Collaborate with the UI/UX design team to ensure that the visual elements align with the intended functionality and business rules.', 'Verify that the user interface accurately represents the underlying business logic and processes.', '', '2-Match UI/UX with Frontend:', 'Collaborate closely with the frontend development team to ensure that the UI/UX design is implemented correctly.', 'Verify that the frontend elements and interactions are consistent with the approved design and functional requirements.', 'Identify and report any inconsistencies or discrepancies between the UI/UX and frontend implementation.', ' 3-Test API Endpoints and Functionalities:', 'Conduct thorough testing of API endpoints to ensure their reliability, accuracy, and adherence to specifications.', 'Verify the functionality and performance of APIs, including data validation, error handling, and response times.', 'Collaborate with the development team to troubleshoot and resolve any issues or bugs discovered during testing.', '', '4-Create and Apply Test Cases for Business Logic and APIs:', 'Develop comprehensive test cases based on the business requirements and functional specifications.', "Execute test cases to validate the accuracy and reliability of the software's business logic and APIs.", 'Document and report any defects or issues encountered during testing, and work closely with the development team to resolve them.', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Business Consultant</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SITA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Doha, Qatar</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/g/VU2S3DR2nUum-Business-Consultant-SITA-Doha-Qatar</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Information', 'Technology', '(IT)', 'Sales', 'Business', 'Administration', 'Sales', 'Skills', 'Business', 'Development', 'ERP', 'Computer', 'Science', 'Sales', 'Target', 'Business', 'Consulting', 'Accounting', 'Project', 'Management', 'Marketing', 'Engineering', 'Customer', 'Service', 'Real', 'Estate', 'Finance', 'Customer', 'Support', 'Property', 'Consultant', 'Consultant']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Job Title</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Job Link</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Salary</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Experience</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Job Requirements</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>User Acceptance Testing Analyst</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Etisalat Egypt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/y52qpj4Ru4wJ-User-Acceptance-Testing-Analyst-Etisalat-Egypt-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Business', 'Analysis', 'Computer', 'Science', 'Information', 'Technology', '(IT)', 'Software', 'User', 'Acceptance', 'Testing']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Minimum 2 years experience in application/web software testing', 'Expertise in software Agile methodologies.', 'Expertise in software Web and Mobile application testing', 'Expertise in defect management', 'Must have the desire for delivering excellence in product quality, and reliability.', 'Ability to work flexible hours – occasionally on weekends too.', 'Tools Knowledge', 'IBM’s Rational Suit / JIRA / Quality Center / Rally / Confluence', 'Proficiency with MS Office Tools (Word, Excel, PowerPoint)', 'Education:', 'Bachelor’s degree in Computer Science or equivalent degree.']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Expertise in application and web software testing, understand the business functionality, and define over all test strategy.', 'Expertise in UX &amp; UI application and Web testing.', 'Ensure to complete the UAT successfully as per the project timeline or a head of it.', 'Proactively manage test readiness, environments, test data quality, resource alignment to meet business objectives.', 'Communicate effectively the daily status – risks / issues / dependencies, track progress and manage issue workflow to resolution.', 'Ensure test documentation / reporting is complete, meaningful and aligns with business objectives.', 'Ensure conformance to quality assurance (UAT) processes.', 'Perform Defect Management functions to ensure defect-fix SLA is met on time.', 'Work closely with projects stakeholders to understand and perform the UAT as per the business requirements, customer and sales agents point of you.', '  ', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence( AI )Business Development</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Riyadh, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/lU6B0g2X9LbC-Artificial-Intelligence-AI-Business-Development-Riyadh-Saudi-Arabia</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1 To 2 SAR Per Month</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Business', 'Development', 'Planning', 'AI', 'Artificial', 'Intelligence', 'Information', 'Technology', '(IT)']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['', ' (Professional in (AI) Artificial Intelligence and Data Analysis)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['', ' Professional in (AI) Artificial Intelligence and Data Analysis']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Assistant Business Intelligence Manager</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAVOLA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/tRhtQsUaBBZ9-Assistant-Business-Intelligence-Manager-SAVOLA-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Confidential, Bonus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['FMCG', 'Database', 'BI', 'Business', 'Intelligence', 'Sales', 'BackOffice', 'HH', 'Information', 'Technology', '(IT)', 'Computer', 'Science', 'Computer', 'Engineering']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['3-6 years of relevant experience.', 'Proven experience as a Power BI Developer with a strong portfolio showcasing your expertise in creating interactive dashboards and reports. Creating advance level DAX function.', 'Hands on experience in developing Sql-Server Reporting Services', 'Excellent understanding of business processes in Oracle ERP systems.', 'Extensive knowledge of Business Objects, including report development, query building, and data extraction.', 'Good understanding of data warehouse concepts in Snowflake, Oracle, and SQL server.', 'Excellent analytical and problem-solving skills, with a keen eye for detail.', 'Effective communication and collaboration skills to work with cross-functional teams.', 'Ability to work independently and act as an effective team player.', 'Knowledge of data governance, security, and compliance.', 'SQL and Python coding skills are plus.']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Data Analysis and Modeling: Analyze complex data sets, identify trends, and model data structures to facilitate efficient data analysis. Understand the business requirements and translate them into technical specifications for data modeling and data warehouse design.', 'Report and Dashboard Development: Create visually appealing and interactive reports, dashboards, and data visualizations using BI tools like Power BI, SSRS. Collaborate with business users to understand their reporting needs, define key performance indicators (KPIs), and develop self-service reporting solutions. Apply data visualization best practices.', 'Data Governance and Security: Implement data governance processes and security measures to protect sensitive information. Ensure compliance with data privacy regulations, establish access controls, and manage user permissions to maintain data confidentiality and integrity.', 'Documentation: Maintain detailed documentation of data models, reports, and dashboards to facilitate knowledge sharing and team collaboration.', 'IT Service Tickets: Monitor service tickets and change requests in Service Desk application, adhere to agreed SLA with business.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data Analysis/Analytics Instructor (Excel - Power BI)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EpsilonAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nasr City, Cairo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/Nd4HjNw7Mnxy-Data-AnalysisAnalytics-Instructor-Excel---Power-BI-EpsilonAI-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Confidential, Commissions And Bonuses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>More Than 1 Year</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Analysis', 'business', 'Business', 'Intelligence', 'Data', 'Analysis', 'Computer', 'Science', 'Power', 'BI', 'SQL', 'Tableau', 'BI', 'Data', 'Information', 'Technology', '(IT)', 'Training', 'SPSS', 'Sass', 'SAS']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Solid Understanding of Microsoft Excel', 'Solid Understanding of business intelligence and data visualization tools (Power BI, Tableau, etc.)', 'High-level proficiency with SQL-based query languages and relational data concepts', 'Experience with customer engagements', 'Candidates must have a degree in computer science, information technology, information systems, commerce, or a related field.', 'Acts as a technical mentor guiding Trainees on a technical journey of discovery', 'Working experience in business intelligence and data analysis', 'Preferred:', 'Prior experience teaching a class of Trainees', 'Experience with statistical packages (SPSS, SAS, Stata, etc.)', 'Prior experience training employees or colleagues']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['conducting and delivering direct training sessions for internal and external clients', 'All of our classes are part-time, designed to fit into your work schedule so you will be able to enjoy teaching while still being able to manage your full-time responsibilities at your current company.', 'Ability to connect and build relationships with Trainees and colleagues from varied ethnicities, ages, backgrounds, learning styles, and abilities', 'Responsibilities:', 'prepare and evaluate diploma assignments, graduation projects, and final exams', "answering trainee's questions and providing quick support", 'Utilizing a variety of training methodologies, techniques, concepts, learning tools, and practices to ensure maximum effectiveness of training programs']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Specialist, Business Development-Graduate Programs</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ESLSCA University</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6th of October, Giza</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/fFvmHGadA5Zq-Specialist-Business-Development-Graduate-Programs-ESLSCA-University-Giza-Egypt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 To 2 Years</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Business', 'Development', 'business']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['2 to 4 years of experience in Sales &amp; Corporate Deals', 'Experience in Educational Institutes is Preferred .', 'High Level of Accuracy and attention to details', 'High level of Social &amp; Emotional Intelligence ', 'Excellent Communication Skills', 'Excellent Negotiation Skills.', 'Excellent Problem Solving Skills', 'Excellent Analytical Skills', 'Excellent level of English Language.', 'Good knowledge of all MS. Applications (Word, PowerPoint, Excel…)', 'Five Days a week', ' ']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Responsible for enhancing the overall sales and maintaining proper client relationship through continuous market scanning for potential leads, performing training needs assessment for clients, developing proposals tackling clients’ needs and ensuring a high-quality account management for new and current client while continuously working on maximizing business.', 'Accountabilities:', 'Performs regular market scans for potential leads.', 'Manages all new &amp; current accounts as assigned by Direct Manager.', 'Works on upselling and Increasing the business with current clients while attracting new ones', 'Identifies and works on penetrating new markets to improve overall Sales.', 'Attends conferences, meetings, and all industry related events to maximize network to develop new leads.', 'Prepares quotations and full proposals for clients.', 'Conducts Initial Training Needs Assessment and recommends the actual needs of the client.', 'Performs any other tasks requested from Manager, MBA/ PGD Admissions or Senior Director, Institutional Advancement.', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Senior Big Data Engineers / Architect</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Vancouver, Canada</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/URAPjbDsaXRq-Senior-Big-Data-Engineers-Architect-Sos-Vancouver-Canada</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2000 To 3000 USD Per Month</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Computer', 'Engineering', 'Big', 'Data', 'Computer', 'Science']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['You must have very good english communication skills. If you do not, we cannot hire you.', 'We are looking for a Staff Big Data Engineer/Architect to join our SaaS Next Generation Platform Team. In this role, you will be responsible for developing, maintaining, evaluating, and testing big data technologies. Our organization is extremely data-driven, where technical innovations happen, and you will have an opportunity to use cutting edge technology across all stages of the development lifecycle and be part of our exciting and innovative initiatives.', ' Responsibilities:', 'Architect, Design, develop BIG data stores and data pipelines with emphasis on real time processing', 'Architect, Design, develop and maintain features and iteratively deploy services using BIG cloud-based architecture', 'Design and implement components of our Next Generation Platform', 'Recommend ways to improve data reliability, efficiency, and quality', 'Expand and grow data platform capabilities to solve new data problems and challenges', 'Build large-scale data processing systems using on premise and cloud computing technologies', 'Build high-performance algorithms, prototypes, and proof of concepts', 'Apply complex big data concepts with a focus on collecting, parsing, managing, and analyzing large sets of data to turn information into insights', 'Work closely with various cross-functional product teams', 'Stay current on key trends, especially in technologies and frameworks like Mesos/Marathon, Kubernetes, Docker, etc.', 'Requirements:', '8+ years experience , 2+ in Big Data Engineering', 'Proficient in Java, Scala, Golang, or Python', 'Good understanding of Microservices architecture', 'Expertise in BigData - MapReduce, HIVE, HBase, Spark Streaming, Apache Flink, Storm, Kafka, In-memory Database, JMS', 'Passionate about building scalable, reliable and performant ETL pipelines', 'Experience with NoSQL databases such as Cassandra', 'Experience in Graph databases such as Neo4J', 'Experience in MySQL for big data applications', 'Good exposure in application performance tuning, memory management, scalability', 'Ability to design highly scalable distributed systems using different open source technologies', 'Experience building high-performance algorithms', 'Nice to Have', 'Knowledgeable about Blockchain and Cryptocurrencies', 'Strong mathematical knowledge, especially in statistics and probability', 'Expertise with the Linux command line for systems administration and tuning, filesystems management, troubleshooting.', 'Education', 'Bachelor’s degree in Computer Science, Computer Engineering, Electrical Engineering or Mathematics is required', 'Masters in Computer Science, Computer Engineering, Electrical Engineering or Mathematics is preferred', ' Additional Requirements', 'Honesty, trustworthiness, humility and a desire to be an equal contributing member of a team are important to us. We value your ability to think creatively; communicate clearly, succinctly and constructively; and solve problems with simple and effective solutions. We recognize that a unified and mutually supportive team is more effective than the sum of its parts. Therefore, we are looking for people that are not only talented engineers but that are also great people that want to be a part of a unified team and share in our successes.', ' About Blockchain Intelligence Group Inc.:', 'Blockchain Intelligence Group brings security and accountability to the new era of cryptocurrency with big data, AML, compliance, search, forensics and training.', '', ' ']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['You must have very good english communication skills. If you do not, we cannot hire you.', 'We are looking for a Staff Big Data Engineer/Architect to join our SaaS Next Generation Platform Team. In this role, you will be responsible for developing, maintaining, evaluating, and testing big data technologies. Our organization is extremely data-driven, where technical innovations happen, and you will have an opportunity to use cutting edge technology across all stages of the development lifecycle and be part of our exciting and innovative initiatives.', ' Responsibilities:', 'Architect, Design, develop BIG data stores and data pipelines with emphasis on real time processing', 'Architect, Design, develop and maintain features and iteratively deploy services using BIG cloud-based architecture', 'Design and implement components of our Next Generation Platform', 'Recommend ways to improve data reliability, efficiency, and quality', 'Expand and grow data platform capabilities to solve new data problems and challenges', 'Build large-scale data processing systems using on premise and cloud computing technologies', 'Build high-performance algorithms, prototypes, and proof of concepts', 'Apply complex big data concepts with a focus on collecting, parsing, managing, and analyzing large sets of data to turn information into insights', 'Work closely with various cross-functional product teams', 'Stay current on key trends, especially in technologies and frameworks like Mesos/Marathon, Kubernetes, Docker, etc.', 'Requirements:', '8+ years experience , 2+ in Big Data Engineering', 'Proficient in Java, Scala, Golang, or Python', 'Good understanding of Microservices architecture', 'Expertise in BigData - MapReduce, HIVE, HBase, Spark Streaming, Apache Flink, Storm, Kafka, In-memory Database, JMS', 'Passionate about building scalable, reliable and performant ETL pipelines', 'Experience with NoSQL databases such as Cassandra', 'Experience in Graph databases such as Neo4J', 'Experience in MySQL for big data applications', 'Good exposure in application performance tuning, memory management, scalability', 'Ability to design highly scalable distributed systems using different open source technologies', 'Experience building high-performance algorithms', 'Nice to Have', 'Knowledgeable about Blockchain and Cryptocurrencies', 'Strong mathematical knowledge, especially in statistics and probability', 'Expertise with the Linux command line for systems administration and tuning, filesystems management, troubleshooting.', 'Education', 'Bachelor’s degree in Computer Science, Computer Engineering, Electrical Engineering or Mathematics is required', 'Masters in Computer Science, Computer Engineering, Electrical Engineering or Mathematics is preferred', ' Additional Requirements', 'Honesty, trustworthiness, humility and a desire to be an equal contributing member of a team are important to us. We value your ability to think creatively; communicate clearly, succinctly and constructively; and solve problems with simple and effective solutions. We recognize that a unified and mutually supportive team is more effective than the sum of its parts. Therefore, we are looking for people that are not only talented engineers but that are also great people that want to be a part of a unified team and share in our successes.', ' About Blockchain Intelligence Group Inc.:', 'Blockchain Intelligence Group brings security and accountability to the new era of cryptocurrency with big data, AML, compliance, search, forensics and training.', '', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Senior Network &amp; Security Engineer</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Universities of Canada i...</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>New Capital, Cairo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/jAhb2ssBeRdJ-Senior-Network-Security-Engineer-Universities-of-Canada-in-Egypt-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Confidential, Social Insurance Medical Insurance Transportation Provided</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['CCNA', 'CCNP', 'Cisco', 'Computer', 'Engineering', 'Computer', 'Science', 'Engineering', 'Information', 'Technology', '(IT)', 'network', 'Network', 'Security', 'Networking', 'Security', 'Troubleshooting']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>["Bachelor's degree in Computer Science, Information Technology, or related field.", 'Minimum of 5 years of experience in network engineering and security.', 'Strong understanding of networking protocols (TCP/IP, routing, switching, etc.).', 'Expertise in network security technologies (firewalls, intrusion detection/prevention systems, VPNs, etc.).', 'Experience with network monitoring and analysis tools.', 'Strong problem-solving and troubleshooting skills.', 'Excellent communication and interpersonal skills.', 'Ability to lead and mentor team members.', 'Relevant industry certifications (e.g., Cisco CCNA, CCNP, Fortinet NSE, CISSP, CISM, or CEH.) preferred']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Responsibilities', 'Network Architecture and Design: Develop and implement network architectures to support business objectives, ensuring scalability, reliability, and performance.', 'Network Security: Design, implement, and maintain security solutions to protect network infrastructure, data, and systems from threats.', 'Network Operations: Oversee the day-to-day operations of the network, including monitoring, troubleshooting, and performance optimization.', 'Security Incident Response: Lead incident response efforts, conducting investigations, containing threats, and implementing corrective actions.', 'Team Leadership: Mentor and develop junior network engineers, providing technical guidance and support.', 'Vendor Management: Manage relationships with network and security vendors, negotiating contracts and ensuring optimal service delivery.', 'Compliance: Ensure network infrastructure and security practices comply with relevant industry standards and regulations.', 'Documentation: Maintain detailed network and security documentation for reference and troubleshooting.', 'Experience with NGFWs, Web Gateways, WAF, Endpoint protection, SSL-VPN, IPSec-VPN, and Traffic monitoring tools.', 'Proficient with configuring network and Wi-Fi devices from multiple vendors (Cisco, FortiGate, Aruba, HP, etc.).']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Senior IT Engineer (SaaS Application – Website Uptime Monitoring)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ITGoals</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/PAtdRJsGwDEs-Senior-IT-Engineer-SaaS-Application-%E2%80%93-Website-Uptime-Monitoring-ITGoals-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['AWS', 'Java', 'Engineering', 'Computer', 'Science', 'Information', 'Technology', '(IT)']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Strong expertise in cloud platforms (AWS, Azure, or Google Cloud), with a focus on building scalable, high-availability systems.', 'Proficiency in JAVA and PostgreSQL or MySQL. ', 'Strong understanding of networking principles, web security, encryption, and compliance best practices.', 'Understanding of DevOps principles and experience with CI/CD tools such as Jenkins, Docker, and Kubernetes.', 'Knowledge of website performance optimization, load balancing, and high-traffic infrastructure management.', 'Desired Skills:', 'Ability to work as a single technical contributor and collaborate with the sales &amp; marketing person in an autonomous mode.', 'Excellent English speaking and writing skills. French language knowledge is a plus.', 'Willing to work in an international context.']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['As a Senior IT Engineer, you will be at the heart of our SaaS application, ensuring it delivers world-class website monitoring services to our customers. You will be responsible for maintaining the system’s robustness, improving scalability, developing new features, and ensuring a seamless and secure user experience. Your work will not only support current business operations but also enable us to expand into new business segments and markets. ', 'Key Responsibilities:', 'As unique technical person you are fully accountable of the SaaS platform. Your key responsibilities are:', 'Platform Stability &amp; Maintenance:', 'Ensure 99.9%+ uptime and resolve technical issues in real-time.', 'Keep systems updated and secure, and provide 24/7 shift support.', 'System Scalability &amp; Optimization:', 'Design scalable architecture and optimize system performance.', 'Collaborate with the team to improve backend processes.', 'Product Innovation &amp; Development:', 'Develop new features to attract business segments (e.g., API integrations, advanced alerts).', 'Implement AI-driven monitoring and enhance notification/reporting tools.', 'Infrastructure Management &amp; DevOps:', 'Manage cloud infrastructure (AWS, Azure, or Google Cloud) and optimize CI/CD pipelines.', 'Monitor traffic and performance to prevent issues.', 'Customer-Centric Focus:', 'Address customer needs with tailored technical solutions by business segments (e.g., e-commerce, SaaS, financial services).', 'Enhance the platform based on feedback and market demands.', 'Security &amp; Compliance:', 'Implement security best practices and ensure data protection compliance.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Senior Google workspace Engineer</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cloud11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/kMCHAoEMy8MO-Senior-Google-workspace-Engineer-Cloud11-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Communication', 'Integration', 'Security', 'Troubleshooting', 'Engineering', 'Computer', 'Science', 'Automation']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Deep understanding of core messaging functions: user management, security, message routing, integrations, MDM (Mobile Device Management)', 'Excellent problem-solving and troubleshooting skills', 'Scripting/automation and API integration experience are a plus', 'Strong communication, presentation, and interpersonal skills', 'Passionate about innovation, collaboration, and exceeding customer expectations']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Flutter Software Engineer</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Cairo, Egypt</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/hFIYPiQptrdi-Flutter-Software-Engineer-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3 To 6 Years</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Mobile', 'Development', 'Desktop', 'Applications', 'SaaS']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Strong proficiency in Dart, with experience in writing optimized and scalable code.', 'Experience with native mobile development (iOS/Android) and knowledge of platform-specific capabilities.', 'Expertise in integrating RESTful APIs and handling data persistence using local storage solutions like SQLite or Hive.', 'Knowledge of state management techniques in Flutter (e.g., Provider, Bloc, Riverpod).', 'Familiarity with mobile app deployment processes on Google Play Store and Apple App Store.', 'Solid understanding of CI/CD pipelines and tools such as Fastlane, Bitrise, or Codemagic.', 'Experience in handling push notifications, deep linking, and in-app purchases.', 'Strong understanding of software development principles such as OOP, SOLID, and MVC/MVVM architectures.', 'Excellent problem-solving skills and attention to detail.', 'Good communication skills, both verbal and written.']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Collaborate closely with product managers, designers, and other engineers to deliver a seamless user experience.', 'Write clean, maintainable, and well-tested code.', 'Integrate third-party APIs and services to extend the app’s functionality.', 'Debug, identify performance bottlenecks, and implement solutions to optimize mobile apps.', 'Provide mentorship and guidance to junior developers on the team.', 'Stay up-to-date with Flutter best practices, new SDK releases, and other mobile development technologies.', 'Participate in code reviews, design discussions, and contribute to technical decisions.', 'Ensure high performance on both iOS and Android platforms.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IT Specialist - Cairo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Confidential Company</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Heliopolis, Cairo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/krdWeBKstnqr-IT-Specialist---Cairo-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>More Than 3 Years</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Install', 'CCNA', 'CCNA', 'Voice', 'SQL', 'Server', 'Troubleshoot', 'Maintenance', 'Information', 'Technology', '(IT)', 'MSCE', 'Computer', 'Science', 'Microsoft', 'Office', 'Microsoft', 'Word', 'Microsoft', 'Excel', 'Networks', 'Information', 'Technology', 'Hardware', 'Software', 'SQL', 'Software', 'Engineering', 'Installation', 'English', 'Network']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Must have 3+ years of experience in administrating, managing and monitoring IT systems.', 'Microsoft Certifications (MSCE or a minimum of MCP).', 'Cisco Certification (CCNA, CCNA Voice).', 'Awareness of SQL server.', 'Awareness of firewall systems.', 'Strong Networks and IT knowledge.', 'Extensive experience.', 'Fluent in English language.', 'Troubleshoot hardware, software and network operating system']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Manage information technology and computer systems including servers, hardware and software troubleshooting, and networks', 'Ensure security of data, network access, and backup systems', 'Assure prompt and effective action is taken to resolve technical problems and minimize repetitive issues.', 'Identify all available technologies to facilitate / enhance the performance of the communication systems', 'Develop expense and capital budgets and operate the IT department within budget parameters.Plan, organize, direct, control and evaluate the operations of information systems.', 'Develop and implement policies and procedures for electronic data processing and computer.', 'Systems operations and development Troubleshoot all technology issues', 'Maintain log and/or list of required repairs and maintenance', 'Make recommendations about purchase of technology resources', 'Provide network access to all staff', 'Install workstations', 'Connect and set up hardware', 'Load all required software', 'Provide network accounts and passwords as required']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Senior System Administrator</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Universities of Canada i...</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>New Capital, Cairo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/eMnwTl83U1XA-Senior-System-Administrator-Universities-of-Canada-in-Egypt-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Confidential, Social Insurance Medical Insurance Transportation Provided</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5 To 10 Years</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Administration', 'Azure', 'Communication', 'Computer', 'Science', 'Engineering', 'Information', 'Technology', '(IT)', 'IT', 'Network', 'Security', 'Security', 'System', 'Administration', 'Troubleshooting', 'Vmware']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Bachelor’s degree in Computer Science, Information Technology, or related field.', 'Minimum of 5 years of experience in system administration.', 'Proven expertise in managing complex IT infrastructures.', 'Strong knowledge of Microsoft Windows Server operating systems, virtualization technologies, and network security.', 'Excellent problem-solving, analytical, and troubleshooting skills.', 'Ability to work independently and as part of a team.', 'Strong communication and interpersonal skills.', 'Relevant certifications (Microsoft Certified: Azure, CISSP, VMware vSphere) preferred.']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['The Senior System Administrator is a critical role responsible for architecting, implementing, and managing the organization’s IT infrastructure. This position requires a strategic thinker with a deep understanding of system administration best practices to ensure optimal system performance, security, and reliability. The successful candidate will collaborate closely with various departments to deliver robust IT solutions that support the organization’s goals.', ' Key Responsibilities:', 'Infrastructure Management: Oversee the design, implementation, and maintenance of the IT infrastructure, including but not limited to Active Directory, Group Policy Objects, DNS, WDS, Office 365, Azure, VMware vSphere, Horizon VDI, backup systems, Linux servers, antivirus solutions, WSUS, and SAN storage.', 'System Administration: Manage and maintain Microsoft Windows Server operating systems in physical and virtual environments. Provide technical leadership and guidance to the team.', 'Virtualization: Effectively manage VMware vSphere features such as Fault Tolerance, High Availability, DRS, and VMotion to optimize resource utilization and system performance.', 'Solution Design and Implementation: Develop and implement innovative IT solutions to enhance system efficiency, reliability, and security.', 'Security: Establish and enforce robust security policies and procedures to protect sensitive data and systems from threats.', 'Technical Support: Provide technical assistance to students, faculty, and staff, resolving hardware and software issues promptly.', 'Project Management: Coordinate system upgrades and refreshes, minimizing disruptions to operations.', 'Incident Management: Manage and resolve incident tickets efficiently, ensuring timely resolution.', 'System Monitoring and Optimization: Continuously monitor system performance, identify bottlenecks, and implement optimizations.', 'Automation: Utilize scripting languages (PowerShell, JavaScript) to automate routine tasks and improve efficiency.', 'Disaster Recovery: Develop and implement comprehensive disaster recovery plans and conduct regular testing.', 'Compliance: Ensure compliance with relevant industry standards and regulations.', 'Team Collaboration: Work collaboratively with IT teams and other departments to achieve organizational goals.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IT Service Desk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Elsewedy industries</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ataqah, Suez</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/4fJtBJSSuDLI-IT-Service-Desk-Elsewedy-industries-Suez-Egypt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1 To 4 Years</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['computer', 'CCNA', 'Help', 'desk', 'Information', 'technology', 'Information', 'Technology', '(IT)', 'Technology', 'MCSA', 'Computer', 'Science']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Bachelor’s degree in information technology, Computer Science.', 'Work Experience', 'From 1 to 4 years of experience in IT Function.', 'Technical Skills', 'Having (MCSA &amp; CCNA) Certificate is a plus.']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Experience in supporting end users on a corporate network; specifically support involving Switches, Subnets, Routers, VLANs, DNS, Network Shares, Network Storage, File/Print services, Directory Services, etc. is preferred.', 'Diagnose and troubleshoot technical issues, including account setup and network configuration.', 'Deploy new user hardware, OS upgrade, SW updates &amp; troubleshooting end user issues day-to-day issues.', 'Respond to client issues, applications, and hardware, and take corrective actions.', 'Diagnose (hardware, software, printing solutions, peripherals, &amp;network) to conclude the optimal way to resolve issues.', 'Perform desktop application installations, upgrades, and other support and maintenance activities.', 'Provision storage solutions, maintain backup jobs to develop backup policies and data recovery procedures to ensure save guarding of data as well as integrity &amp; privacy']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>User Acceptance Testing Analyst</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Etisalat Egypt</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Maadi, Cairo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/y52qpj4Ru4wJ-User-Acceptance-Testing-Analyst-Etisalat-Egypt-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Confidential</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Business', 'Analysis', 'Computer', 'Science', 'Information', 'Technology', '(IT)', 'Software', 'User', 'Acceptance', 'Testing']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Minimum 2 years experience in application/web software testing', 'Expertise in software Agile methodologies.', 'Expertise in software Web and Mobile application testing', 'Expertise in defect management', 'Must have the desire for delivering excellence in product quality, and reliability.', 'Ability to work flexible hours – occasionally on weekends too.', 'Tools Knowledge', 'IBM’s Rational Suit / JIRA / Quality Center / Rally / Confluence', 'Proficiency with MS Office Tools (Word, Excel, PowerPoint)', 'Education:', 'Bachelor’s degree in Computer Science or equivalent degree.']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Expertise in application and web software testing, understand the business functionality, and define over all test strategy.', 'Expertise in UX &amp; UI application and Web testing.', 'Ensure to complete the UAT successfully as per the project timeline or a head of it.', 'Proactively manage test readiness, environments, test data quality, resource alignment to meet business objectives.', 'Communicate effectively the daily status – risks / issues / dependencies, track progress and manage issue workflow to resolution.', 'Ensure test documentation / reporting is complete, meaningful and aligns with business objectives.', 'Ensure conformance to quality assurance (UAT) processes.', 'Perform Defect Management functions to ensure defect-fix SLA is met on time.', 'Work closely with projects stakeholders to understand and perform the UAT as per the business requirements, customer and sales agents point of you.', '  ', ' ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BIM Architect</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Decorai design  </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>New Cairo, Cairo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://wuzzuf.net/jobs/p/pw3vOGbQwcpt-BIM-Architect-Decorai-design-Cairo-Egypt</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20000 To 25000 EGP Per Month</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3 To 5 Years</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Architecture', 'BIM', 'Revit', 'BIM', 'Architect']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['BA/BS degree in Architecture.', 'Minimum experience 1 - 3 years.', 'Drafting &amp; detailing.', 'Excellent knowledge of using Revit.', 'Other Skills:', 'Knowledge of architecture and architectural principles and techniques.', 'Knowledge of the methods and techniques of CAD design &amp; Revit.', 'Skill in drafting architectural plans.']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Work with architects to generate detailed and accurate drawings from the concept stage up to the issue for the construction package. ', 'Assists in developing and coordinating the development of detailed working drawings and specifications after approval for the obtained project.', 'Work collaboratively with office design team members to ensure the accuracy of design work.', 'Finalize drafting projects using Revit &amp; other software…. etc.', 'Coordinate the collection of data and incorporate this information into drawings and schematics.', 'Ability the checklist completion for the deliverable sheets.', 'Ability to Comply with codes / Checklists.', 'Assist team members in overcoming any technical problems with the knowledge of others.', 'Assist project seniors in fulfilling their obligations properly.']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
